--- a/data-migration/xlsx_1900-/1917_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1917_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89AE5A-39CB-4058-B404-89FB470D8B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435301B4-191D-4685-A55E-E87313C96703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1422">
   <si>
     <t>Sommer</t>
   </si>
@@ -4296,6 +4296,9 @@
   </si>
   <si>
     <t>meyer_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4645,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="H430" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="I208" sqref="I208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9837,7 +9840,7 @@
         <v>1299</v>
       </c>
       <c r="I196" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -9863,7 +9866,7 @@
         <v>1299</v>
       </c>
       <c r="I197" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -9889,7 +9892,7 @@
         <v>1299</v>
       </c>
       <c r="I198" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -10019,7 +10022,7 @@
         <v>1381</v>
       </c>
       <c r="I203" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -10045,7 +10048,7 @@
         <v>1381</v>
       </c>
       <c r="I204" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -10071,7 +10074,7 @@
         <v>1381</v>
       </c>
       <c r="I205" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -10097,7 +10100,7 @@
         <v>1381</v>
       </c>
       <c r="I206" t="s">
-        <v>1410</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1917_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1917_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435301B4-191D-4685-A55E-E87313C96703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8A4BE-F93D-4EA8-BE22-0CDC8873D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4217,9 +4217,6 @@
     <t>naef_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>tieche_m</t>
   </si>
   <si>
@@ -4229,9 +4226,6 @@
     <t>schulthess_w</t>
   </si>
   <si>
-    <t>anderes _e</t>
-  </si>
-  <si>
     <t>maier_hw</t>
   </si>
   <si>
@@ -4244,9 +4238,6 @@
     <t>vongonzenbach_w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>freytag_w</t>
   </si>
   <si>
@@ -4299,6 +4290,15 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>anderes_e</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4648,19 +4648,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="I208" sqref="I208"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
-    <col min="7" max="7" width="41.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="41.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1917</v>
       </c>
@@ -4683,10 +4683,10 @@
         <v>1244</v>
       </c>
       <c r="I1" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1917</v>
       </c>
@@ -4709,10 +4709,10 @@
         <v>1245</v>
       </c>
       <c r="I2" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1917</v>
       </c>
@@ -4735,13 +4735,13 @@
         <v>1365</v>
       </c>
       <c r="I3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J3" t="s">
         <v>1409</v>
       </c>
-      <c r="J3" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1917</v>
       </c>
@@ -4764,13 +4764,13 @@
         <v>1365</v>
       </c>
       <c r="I4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J4" t="s">
         <v>1409</v>
       </c>
-      <c r="J4" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1917</v>
       </c>
@@ -4793,10 +4793,10 @@
         <v>1245</v>
       </c>
       <c r="I5" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1917</v>
       </c>
@@ -4819,13 +4819,13 @@
         <v>1365</v>
       </c>
       <c r="I6" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J6" t="s">
         <v>1409</v>
       </c>
-      <c r="J6" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1917</v>
       </c>
@@ -4848,13 +4848,13 @@
         <v>1365</v>
       </c>
       <c r="I7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J7" t="s">
         <v>1409</v>
       </c>
-      <c r="J7" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1917</v>
       </c>
@@ -4877,13 +4877,13 @@
         <v>1365</v>
       </c>
       <c r="I8" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J8" t="s">
         <v>1409</v>
       </c>
-      <c r="J8" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1917</v>
       </c>
@@ -4906,10 +4906,10 @@
         <v>1247</v>
       </c>
       <c r="I9" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1917</v>
       </c>
@@ -4932,10 +4932,10 @@
         <v>1247</v>
       </c>
       <c r="I10" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1917</v>
       </c>
@@ -4958,10 +4958,10 @@
         <v>1366</v>
       </c>
       <c r="I11" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1917</v>
       </c>
@@ -4984,10 +4984,10 @@
         <v>1247</v>
       </c>
       <c r="I12" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1917</v>
       </c>
@@ -5010,10 +5010,10 @@
         <v>1247</v>
       </c>
       <c r="I13" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1917</v>
       </c>
@@ -5036,10 +5036,10 @@
         <v>1366</v>
       </c>
       <c r="I14" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1917</v>
       </c>
@@ -5062,10 +5062,10 @@
         <v>1248</v>
       </c>
       <c r="I15" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1917</v>
       </c>
@@ -5088,10 +5088,10 @@
         <v>1246</v>
       </c>
       <c r="I16" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1917</v>
       </c>
@@ -5114,10 +5114,10 @@
         <v>1246</v>
       </c>
       <c r="I17" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1917</v>
       </c>
@@ -5140,10 +5140,10 @@
         <v>1246</v>
       </c>
       <c r="I18" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1917</v>
       </c>
@@ -5166,10 +5166,10 @@
         <v>1367</v>
       </c>
       <c r="I19" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1917</v>
       </c>
@@ -5192,10 +5192,10 @@
         <v>1244</v>
       </c>
       <c r="I20" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1917</v>
       </c>
@@ -5218,10 +5218,10 @@
         <v>1366</v>
       </c>
       <c r="I21" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1917</v>
       </c>
@@ -5244,10 +5244,10 @@
         <v>1245</v>
       </c>
       <c r="I22" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1917</v>
       </c>
@@ -5270,10 +5270,10 @@
         <v>1247</v>
       </c>
       <c r="I23" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1917</v>
       </c>
@@ -5296,10 +5296,10 @@
         <v>1366</v>
       </c>
       <c r="I24" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1917</v>
       </c>
@@ -5322,10 +5322,10 @@
         <v>1246</v>
       </c>
       <c r="I25" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1917</v>
       </c>
@@ -5348,10 +5348,10 @@
         <v>1367</v>
       </c>
       <c r="I26" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1917</v>
       </c>
@@ -5374,10 +5374,10 @@
         <v>1366</v>
       </c>
       <c r="I27" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1917</v>
       </c>
@@ -5400,10 +5400,10 @@
         <v>1244</v>
       </c>
       <c r="I28" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1917</v>
       </c>
@@ -5426,10 +5426,10 @@
         <v>1249</v>
       </c>
       <c r="I29" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1917</v>
       </c>
@@ -5452,10 +5452,10 @@
         <v>1250</v>
       </c>
       <c r="I30" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1917</v>
       </c>
@@ -5478,10 +5478,10 @@
         <v>1249</v>
       </c>
       <c r="I31" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1917</v>
       </c>
@@ -5504,10 +5504,10 @@
         <v>1251</v>
       </c>
       <c r="I32" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1917</v>
       </c>
@@ -5530,10 +5530,10 @@
         <v>1252</v>
       </c>
       <c r="I33" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1917</v>
       </c>
@@ -5556,10 +5556,10 @@
         <v>1250</v>
       </c>
       <c r="I34" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1917</v>
       </c>
@@ -5579,13 +5579,13 @@
         <v>960</v>
       </c>
       <c r="H35" t="s">
-        <v>1394</v>
+        <v>1419</v>
       </c>
       <c r="I35" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1917</v>
       </c>
@@ -5605,13 +5605,13 @@
         <v>961</v>
       </c>
       <c r="H36" t="s">
-        <v>1394</v>
+        <v>1419</v>
       </c>
       <c r="I36" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1917</v>
       </c>
@@ -5634,10 +5634,10 @@
         <v>1253</v>
       </c>
       <c r="I37" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1917</v>
       </c>
@@ -5660,10 +5660,10 @@
         <v>1252</v>
       </c>
       <c r="I38" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1917</v>
       </c>
@@ -5686,10 +5686,10 @@
         <v>1254</v>
       </c>
       <c r="I39" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1917</v>
       </c>
@@ -5712,10 +5712,10 @@
         <v>1255</v>
       </c>
       <c r="I40" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1917</v>
       </c>
@@ -5738,10 +5738,10 @@
         <v>1254</v>
       </c>
       <c r="I41" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1917</v>
       </c>
@@ -5764,10 +5764,10 @@
         <v>1254</v>
       </c>
       <c r="I42" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1917</v>
       </c>
@@ -5790,10 +5790,10 @@
         <v>1255</v>
       </c>
       <c r="I43" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1917</v>
       </c>
@@ -5816,10 +5816,10 @@
         <v>1255</v>
       </c>
       <c r="I44" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1917</v>
       </c>
@@ -5842,10 +5842,10 @@
         <v>1256</v>
       </c>
       <c r="I45" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1917</v>
       </c>
@@ -5868,10 +5868,10 @@
         <v>1256</v>
       </c>
       <c r="I46" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1917</v>
       </c>
@@ -5894,10 +5894,10 @@
         <v>1368</v>
       </c>
       <c r="I47" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1917</v>
       </c>
@@ -5920,10 +5920,10 @@
         <v>1257</v>
       </c>
       <c r="I48" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1917</v>
       </c>
@@ -5946,10 +5946,10 @@
         <v>1257</v>
       </c>
       <c r="I49" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1917</v>
       </c>
@@ -5972,10 +5972,10 @@
         <v>1258</v>
       </c>
       <c r="I50" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1917</v>
       </c>
@@ -5998,10 +5998,10 @@
         <v>1259</v>
       </c>
       <c r="I51" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1917</v>
       </c>
@@ -6024,10 +6024,10 @@
         <v>1259</v>
       </c>
       <c r="I52" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1917</v>
       </c>
@@ -6050,10 +6050,10 @@
         <v>1260</v>
       </c>
       <c r="I53" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1917</v>
       </c>
@@ -6076,10 +6076,10 @@
         <v>1260</v>
       </c>
       <c r="I54" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1917</v>
       </c>
@@ -6102,10 +6102,10 @@
         <v>1260</v>
       </c>
       <c r="I55" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1917</v>
       </c>
@@ -6128,10 +6128,10 @@
         <v>1371</v>
       </c>
       <c r="I56" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1917</v>
       </c>
@@ -6154,10 +6154,10 @@
         <v>1371</v>
       </c>
       <c r="I57" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1917</v>
       </c>
@@ -6180,10 +6180,10 @@
         <v>1371</v>
       </c>
       <c r="I58" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1917</v>
       </c>
@@ -6206,10 +6206,10 @@
         <v>1262</v>
       </c>
       <c r="I59" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1917</v>
       </c>
@@ -6232,10 +6232,10 @@
         <v>1262</v>
       </c>
       <c r="I60" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1917</v>
       </c>
@@ -6258,10 +6258,10 @@
         <v>1263</v>
       </c>
       <c r="I61" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1917</v>
       </c>
@@ -6284,10 +6284,10 @@
         <v>1264</v>
       </c>
       <c r="I62" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1917</v>
       </c>
@@ -6310,10 +6310,10 @@
         <v>1369</v>
       </c>
       <c r="I63" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1917</v>
       </c>
@@ -6336,10 +6336,10 @@
         <v>1369</v>
       </c>
       <c r="I64" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1917</v>
       </c>
@@ -6362,13 +6362,13 @@
         <v>1266</v>
       </c>
       <c r="I65" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J65" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1917</v>
       </c>
@@ -6391,13 +6391,13 @@
         <v>1266</v>
       </c>
       <c r="I66" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J66" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1917</v>
       </c>
@@ -6420,10 +6420,10 @@
         <v>1370</v>
       </c>
       <c r="I67" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1917</v>
       </c>
@@ -6446,10 +6446,10 @@
         <v>1267</v>
       </c>
       <c r="I68" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1917</v>
       </c>
@@ -6472,10 +6472,10 @@
         <v>1251</v>
       </c>
       <c r="I69" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1917</v>
       </c>
@@ -6498,10 +6498,10 @@
         <v>1250</v>
       </c>
       <c r="I70" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1917</v>
       </c>
@@ -6524,10 +6524,10 @@
         <v>1255</v>
       </c>
       <c r="I71" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1917</v>
       </c>
@@ -6550,10 +6550,10 @@
         <v>1254</v>
       </c>
       <c r="I72" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1917</v>
       </c>
@@ -6576,10 +6576,10 @@
         <v>1254</v>
       </c>
       <c r="I73" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1917</v>
       </c>
@@ -6602,10 +6602,10 @@
         <v>1256</v>
       </c>
       <c r="I74" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1917</v>
       </c>
@@ -6628,10 +6628,10 @@
         <v>1368</v>
       </c>
       <c r="I75" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1917</v>
       </c>
@@ -6654,10 +6654,10 @@
         <v>1257</v>
       </c>
       <c r="I76" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1917</v>
       </c>
@@ -6680,10 +6680,10 @@
         <v>1258</v>
       </c>
       <c r="I77" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1917</v>
       </c>
@@ -6706,10 +6706,10 @@
         <v>1259</v>
       </c>
       <c r="I78" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1917</v>
       </c>
@@ -6732,10 +6732,10 @@
         <v>1259</v>
       </c>
       <c r="I79" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1917</v>
       </c>
@@ -6758,10 +6758,10 @@
         <v>1260</v>
       </c>
       <c r="I80" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1917</v>
       </c>
@@ -6784,10 +6784,10 @@
         <v>1264</v>
       </c>
       <c r="I81" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1917</v>
       </c>
@@ -6810,10 +6810,10 @@
         <v>1371</v>
       </c>
       <c r="I82" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1917</v>
       </c>
@@ -6836,13 +6836,13 @@
         <v>1369</v>
       </c>
       <c r="I83" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J83" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1917</v>
       </c>
@@ -6865,13 +6865,13 @@
         <v>1266</v>
       </c>
       <c r="I84" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J84" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1917</v>
       </c>
@@ -6894,13 +6894,13 @@
         <v>1266</v>
       </c>
       <c r="I85" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J85" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1917</v>
       </c>
@@ -6923,13 +6923,13 @@
         <v>1266</v>
       </c>
       <c r="I86" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J86" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1917</v>
       </c>
@@ -6952,10 +6952,10 @@
         <v>1268</v>
       </c>
       <c r="I87" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1917</v>
       </c>
@@ -6981,10 +6981,10 @@
         <v>1269</v>
       </c>
       <c r="I88" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1917</v>
       </c>
@@ -7010,10 +7010,10 @@
         <v>1269</v>
       </c>
       <c r="I89" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1917</v>
       </c>
@@ -7036,22 +7036,22 @@
         <v>1269</v>
       </c>
       <c r="I90" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="K90" t="s">
         <v>1270</v>
       </c>
       <c r="L90" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="M90" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="N90" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1917</v>
       </c>
@@ -7074,22 +7074,22 @@
         <v>1269</v>
       </c>
       <c r="I91" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="K91" t="s">
         <v>1270</v>
       </c>
       <c r="L91" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="M91" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="N91" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1917</v>
       </c>
@@ -7112,10 +7112,10 @@
         <v>1269</v>
       </c>
       <c r="I92" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1917</v>
       </c>
@@ -7138,10 +7138,10 @@
         <v>1270</v>
       </c>
       <c r="I93" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1917</v>
       </c>
@@ -7167,10 +7167,10 @@
         <v>1270</v>
       </c>
       <c r="I94" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1917</v>
       </c>
@@ -7193,10 +7193,10 @@
         <v>1271</v>
       </c>
       <c r="I95" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1917</v>
       </c>
@@ -7219,10 +7219,10 @@
         <v>1372</v>
       </c>
       <c r="I96" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1917</v>
       </c>
@@ -7245,10 +7245,10 @@
         <v>1372</v>
       </c>
       <c r="I97" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1917</v>
       </c>
@@ -7271,10 +7271,10 @@
         <v>1272</v>
       </c>
       <c r="I98" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1917</v>
       </c>
@@ -7297,10 +7297,10 @@
         <v>1373</v>
       </c>
       <c r="I99" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1917</v>
       </c>
@@ -7323,10 +7323,10 @@
         <v>1373</v>
       </c>
       <c r="I100" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1917</v>
       </c>
@@ -7349,10 +7349,10 @@
         <v>1373</v>
       </c>
       <c r="I101" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1917</v>
       </c>
@@ -7375,10 +7375,10 @@
         <v>1373</v>
       </c>
       <c r="I102" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1917</v>
       </c>
@@ -7401,10 +7401,10 @@
         <v>1273</v>
       </c>
       <c r="I103" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1917</v>
       </c>
@@ -7427,10 +7427,10 @@
         <v>1273</v>
       </c>
       <c r="I104" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1917</v>
       </c>
@@ -7453,10 +7453,10 @@
         <v>1273</v>
       </c>
       <c r="I105" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1917</v>
       </c>
@@ -7479,10 +7479,10 @@
         <v>1273</v>
       </c>
       <c r="I106" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1917</v>
       </c>
@@ -7505,10 +7505,10 @@
         <v>1273</v>
       </c>
       <c r="I107" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1917</v>
       </c>
@@ -7531,10 +7531,10 @@
         <v>1274</v>
       </c>
       <c r="I108" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1917</v>
       </c>
@@ -7557,10 +7557,10 @@
         <v>1374</v>
       </c>
       <c r="I109" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1917</v>
       </c>
@@ -7583,10 +7583,10 @@
         <v>1374</v>
       </c>
       <c r="I110" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1917</v>
       </c>
@@ -7609,10 +7609,10 @@
         <v>1374</v>
       </c>
       <c r="I111" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1917</v>
       </c>
@@ -7635,10 +7635,10 @@
         <v>1275</v>
       </c>
       <c r="I112" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1917</v>
       </c>
@@ -7661,10 +7661,10 @@
         <v>1275</v>
       </c>
       <c r="I113" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1917</v>
       </c>
@@ -7687,10 +7687,10 @@
         <v>1275</v>
       </c>
       <c r="I114" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1917</v>
       </c>
@@ -7713,10 +7713,10 @@
         <v>1261</v>
       </c>
       <c r="I115" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1917</v>
       </c>
@@ -7739,10 +7739,10 @@
         <v>1261</v>
       </c>
       <c r="I116" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1917</v>
       </c>
@@ -7765,10 +7765,10 @@
         <v>1375</v>
       </c>
       <c r="I117" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1917</v>
       </c>
@@ -7791,10 +7791,10 @@
         <v>1375</v>
       </c>
       <c r="I118" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1917</v>
       </c>
@@ -7817,10 +7817,10 @@
         <v>1375</v>
       </c>
       <c r="I119" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1917</v>
       </c>
@@ -7840,13 +7840,13 @@
         <v>1031</v>
       </c>
       <c r="H120" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I120" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1917</v>
       </c>
@@ -7869,10 +7869,10 @@
         <v>1276</v>
       </c>
       <c r="I121" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1917</v>
       </c>
@@ -7895,10 +7895,10 @@
         <v>1276</v>
       </c>
       <c r="I122" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1917</v>
       </c>
@@ -7921,10 +7921,10 @@
         <v>1276</v>
       </c>
       <c r="I123" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1917</v>
       </c>
@@ -7947,10 +7947,10 @@
         <v>1277</v>
       </c>
       <c r="I124" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1917</v>
       </c>
@@ -7973,10 +7973,10 @@
         <v>1277</v>
       </c>
       <c r="I125" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1917</v>
       </c>
@@ -7996,13 +7996,13 @@
         <v>996</v>
       </c>
       <c r="H126" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I126" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1917</v>
       </c>
@@ -8025,10 +8025,10 @@
         <v>1278</v>
       </c>
       <c r="I127" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1917</v>
       </c>
@@ -8051,10 +8051,10 @@
         <v>1279</v>
       </c>
       <c r="I128" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1917</v>
       </c>
@@ -8077,16 +8077,16 @@
         <v>1279</v>
       </c>
       <c r="I129" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="K129" t="s">
         <v>1280</v>
       </c>
       <c r="L129" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1917</v>
       </c>
@@ -8109,10 +8109,10 @@
         <v>1280</v>
       </c>
       <c r="I130" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1917</v>
       </c>
@@ -8135,16 +8135,16 @@
         <v>1280</v>
       </c>
       <c r="I131" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="K131" t="s">
         <v>1279</v>
       </c>
       <c r="L131" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1917</v>
       </c>
@@ -8167,10 +8167,10 @@
         <v>1372</v>
       </c>
       <c r="I132" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1917</v>
       </c>
@@ -8193,10 +8193,10 @@
         <v>1372</v>
       </c>
       <c r="I133" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1917</v>
       </c>
@@ -8216,10 +8216,10 @@
         <v>1039</v>
       </c>
       <c r="H134" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1917</v>
       </c>
@@ -8239,10 +8239,10 @@
         <v>1040</v>
       </c>
       <c r="H135" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1917</v>
       </c>
@@ -8262,10 +8262,10 @@
         <v>1041</v>
       </c>
       <c r="H136" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1917</v>
       </c>
@@ -8288,10 +8288,10 @@
         <v>1376</v>
       </c>
       <c r="I137" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1917</v>
       </c>
@@ -8314,10 +8314,10 @@
         <v>1281</v>
       </c>
       <c r="I138" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1917</v>
       </c>
@@ -8340,10 +8340,10 @@
         <v>1376</v>
       </c>
       <c r="I139" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1917</v>
       </c>
@@ -8366,10 +8366,10 @@
         <v>1282</v>
       </c>
       <c r="I140" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1917</v>
       </c>
@@ -8392,10 +8392,10 @@
         <v>1282</v>
       </c>
       <c r="I141" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1917</v>
       </c>
@@ -8418,10 +8418,10 @@
         <v>1282</v>
       </c>
       <c r="I142" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1917</v>
       </c>
@@ -8444,10 +8444,10 @@
         <v>1281</v>
       </c>
       <c r="I143" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1917</v>
       </c>
@@ -8470,10 +8470,10 @@
         <v>1283</v>
       </c>
       <c r="I144" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1917</v>
       </c>
@@ -8496,10 +8496,10 @@
         <v>1377</v>
       </c>
       <c r="I145" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1917</v>
       </c>
@@ -8522,10 +8522,10 @@
         <v>1285</v>
       </c>
       <c r="I146" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1917</v>
       </c>
@@ -8545,13 +8545,13 @@
         <v>1049</v>
       </c>
       <c r="H147" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I147" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1917</v>
       </c>
@@ -8571,13 +8571,13 @@
         <v>1050</v>
       </c>
       <c r="H148" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I148" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1917</v>
       </c>
@@ -8600,10 +8600,10 @@
         <v>1286</v>
       </c>
       <c r="I149" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1917</v>
       </c>
@@ -8626,10 +8626,10 @@
         <v>1287</v>
       </c>
       <c r="I150" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1917</v>
       </c>
@@ -8652,10 +8652,10 @@
         <v>1378</v>
       </c>
       <c r="I151" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1917</v>
       </c>
@@ -8678,10 +8678,10 @@
         <v>1378</v>
       </c>
       <c r="I152" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1917</v>
       </c>
@@ -8704,13 +8704,13 @@
         <v>1288</v>
       </c>
       <c r="I153" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J153" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1917</v>
       </c>
@@ -8733,13 +8733,13 @@
         <v>1288</v>
       </c>
       <c r="I154" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J154" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1917</v>
       </c>
@@ -8762,10 +8762,10 @@
         <v>1289</v>
       </c>
       <c r="I155" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1917</v>
       </c>
@@ -8788,10 +8788,10 @@
         <v>1290</v>
       </c>
       <c r="I156" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1917</v>
       </c>
@@ -8814,10 +8814,10 @@
         <v>1290</v>
       </c>
       <c r="I157" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1917</v>
       </c>
@@ -8840,10 +8840,10 @@
         <v>1379</v>
       </c>
       <c r="I158" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1917</v>
       </c>
@@ -8866,10 +8866,10 @@
         <v>1379</v>
       </c>
       <c r="I159" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1917</v>
       </c>
@@ -8892,10 +8892,10 @@
         <v>1380</v>
       </c>
       <c r="I160" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1917</v>
       </c>
@@ -8915,19 +8915,19 @@
         <v>1057</v>
       </c>
       <c r="H161" t="s">
-        <v>1398</v>
+        <v>1420</v>
       </c>
       <c r="I161" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="K161" t="s">
         <v>1290</v>
       </c>
       <c r="L161" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1917</v>
       </c>
@@ -8947,13 +8947,13 @@
         <v>1058</v>
       </c>
       <c r="H162" t="s">
-        <v>1398</v>
+        <v>1420</v>
       </c>
       <c r="I162" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1917</v>
       </c>
@@ -8973,13 +8973,13 @@
         <v>1059</v>
       </c>
       <c r="H163" t="s">
-        <v>1398</v>
+        <v>1420</v>
       </c>
       <c r="I163" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1917</v>
       </c>
@@ -9002,10 +9002,10 @@
         <v>1291</v>
       </c>
       <c r="I164" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1917</v>
       </c>
@@ -9028,10 +9028,10 @@
         <v>1291</v>
       </c>
       <c r="I165" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1917</v>
       </c>
@@ -9051,13 +9051,13 @@
         <v>933</v>
       </c>
       <c r="H166" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I166" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1917</v>
       </c>
@@ -9080,10 +9080,10 @@
         <v>1292</v>
       </c>
       <c r="I167" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1917</v>
       </c>
@@ -9106,10 +9106,10 @@
         <v>1292</v>
       </c>
       <c r="I168" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1917</v>
       </c>
@@ -9132,10 +9132,10 @@
         <v>1292</v>
       </c>
       <c r="I169" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1917</v>
       </c>
@@ -9158,10 +9158,10 @@
         <v>1293</v>
       </c>
       <c r="I170" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1917</v>
       </c>
@@ -9184,10 +9184,10 @@
         <v>1293</v>
       </c>
       <c r="I171" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1917</v>
       </c>
@@ -9207,13 +9207,13 @@
         <v>1064</v>
       </c>
       <c r="H172" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I172" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1917</v>
       </c>
@@ -9233,13 +9233,13 @@
         <v>1065</v>
       </c>
       <c r="H173" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I173" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1917</v>
       </c>
@@ -9259,13 +9259,13 @@
         <v>933</v>
       </c>
       <c r="H174" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="I174" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1917</v>
       </c>
@@ -9285,13 +9285,13 @@
         <v>996</v>
       </c>
       <c r="H175" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I175" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1917</v>
       </c>
@@ -9311,13 +9311,13 @@
         <v>933</v>
       </c>
       <c r="H176" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="I176" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1917</v>
       </c>
@@ -9337,13 +9337,13 @@
         <v>1066</v>
       </c>
       <c r="H177" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I177" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1917</v>
       </c>
@@ -9363,13 +9363,13 @@
         <v>1067</v>
       </c>
       <c r="H178" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I178" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1917</v>
       </c>
@@ -9389,19 +9389,19 @@
         <v>1068</v>
       </c>
       <c r="H179" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I179" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K179" t="s">
+        <v>1400</v>
+      </c>
+      <c r="L179" t="s">
         <v>1410</v>
       </c>
-      <c r="K179" t="s">
-        <v>1402</v>
-      </c>
-      <c r="L179" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1917</v>
       </c>
@@ -9421,13 +9421,13 @@
         <v>1069</v>
       </c>
       <c r="H180" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I180" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1917</v>
       </c>
@@ -9447,13 +9447,13 @@
         <v>1070</v>
       </c>
       <c r="H181" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="I181" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1917</v>
       </c>
@@ -9473,13 +9473,13 @@
         <v>1071</v>
       </c>
       <c r="H182" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I182" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1917</v>
       </c>
@@ -9499,13 +9499,13 @@
         <v>1072</v>
       </c>
       <c r="H183" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I183" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1917</v>
       </c>
@@ -9525,13 +9525,13 @@
         <v>1073</v>
       </c>
       <c r="H184" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I184" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1917</v>
       </c>
@@ -9554,10 +9554,10 @@
         <v>1294</v>
       </c>
       <c r="I185" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1917</v>
       </c>
@@ -9580,10 +9580,10 @@
         <v>1295</v>
       </c>
       <c r="I186" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1917</v>
       </c>
@@ -9606,10 +9606,10 @@
         <v>1295</v>
       </c>
       <c r="I187" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1917</v>
       </c>
@@ -9632,10 +9632,10 @@
         <v>1295</v>
       </c>
       <c r="I188" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1917</v>
       </c>
@@ -9658,10 +9658,10 @@
         <v>1295</v>
       </c>
       <c r="I189" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1917</v>
       </c>
@@ -9684,10 +9684,10 @@
         <v>1296</v>
       </c>
       <c r="I190" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1917</v>
       </c>
@@ -9707,13 +9707,13 @@
         <v>1076</v>
       </c>
       <c r="H191" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="I191" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1917</v>
       </c>
@@ -9733,13 +9733,13 @@
         <v>1077</v>
       </c>
       <c r="H192" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="I192" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1917</v>
       </c>
@@ -9759,13 +9759,13 @@
         <v>1078</v>
       </c>
       <c r="H193" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="I193" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1917</v>
       </c>
@@ -9788,10 +9788,10 @@
         <v>1297</v>
       </c>
       <c r="I194" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1917</v>
       </c>
@@ -9814,10 +9814,10 @@
         <v>1298</v>
       </c>
       <c r="I195" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1917</v>
       </c>
@@ -9840,10 +9840,10 @@
         <v>1299</v>
       </c>
       <c r="I196" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1917</v>
       </c>
@@ -9866,10 +9866,10 @@
         <v>1299</v>
       </c>
       <c r="I197" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1917</v>
       </c>
@@ -9892,10 +9892,10 @@
         <v>1299</v>
       </c>
       <c r="I198" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1917</v>
       </c>
@@ -9918,10 +9918,10 @@
         <v>1373</v>
       </c>
       <c r="I199" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1917</v>
       </c>
@@ -9944,10 +9944,10 @@
         <v>1373</v>
       </c>
       <c r="I200" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1917</v>
       </c>
@@ -9970,10 +9970,10 @@
         <v>1373</v>
       </c>
       <c r="I201" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1917</v>
       </c>
@@ -9996,10 +9996,10 @@
         <v>1373</v>
       </c>
       <c r="I202" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1917</v>
       </c>
@@ -10022,10 +10022,10 @@
         <v>1381</v>
       </c>
       <c r="I203" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1917</v>
       </c>
@@ -10048,10 +10048,10 @@
         <v>1381</v>
       </c>
       <c r="I204" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1917</v>
       </c>
@@ -10074,10 +10074,10 @@
         <v>1381</v>
       </c>
       <c r="I205" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1917</v>
       </c>
@@ -10100,10 +10100,10 @@
         <v>1381</v>
       </c>
       <c r="I206" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1917</v>
       </c>
@@ -10126,10 +10126,10 @@
         <v>1300</v>
       </c>
       <c r="I207" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1917</v>
       </c>
@@ -10152,10 +10152,10 @@
         <v>1300</v>
       </c>
       <c r="I208" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1917</v>
       </c>
@@ -10178,10 +10178,10 @@
         <v>1300</v>
       </c>
       <c r="I209" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1917</v>
       </c>
@@ -10204,10 +10204,10 @@
         <v>1300</v>
       </c>
       <c r="I210" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1917</v>
       </c>
@@ -10230,10 +10230,10 @@
         <v>1300</v>
       </c>
       <c r="I211" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1917</v>
       </c>
@@ -10256,10 +10256,10 @@
         <v>1301</v>
       </c>
       <c r="I212" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1917</v>
       </c>
@@ -10282,10 +10282,10 @@
         <v>1301</v>
       </c>
       <c r="I213" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1917</v>
       </c>
@@ -10308,10 +10308,10 @@
         <v>1301</v>
       </c>
       <c r="I214" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1917</v>
       </c>
@@ -10334,10 +10334,10 @@
         <v>1302</v>
       </c>
       <c r="I215" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1917</v>
       </c>
@@ -10360,10 +10360,10 @@
         <v>1302</v>
       </c>
       <c r="I216" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1917</v>
       </c>
@@ -10386,10 +10386,10 @@
         <v>1302</v>
       </c>
       <c r="I217" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1917</v>
       </c>
@@ -10412,10 +10412,10 @@
         <v>1302</v>
       </c>
       <c r="I218" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1917</v>
       </c>
@@ -10438,10 +10438,10 @@
         <v>1302</v>
       </c>
       <c r="I219" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1917</v>
       </c>
@@ -10464,10 +10464,10 @@
         <v>1302</v>
       </c>
       <c r="I220" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1917</v>
       </c>
@@ -10490,13 +10490,13 @@
         <v>1303</v>
       </c>
       <c r="I221" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J221" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1917</v>
       </c>
@@ -10519,13 +10519,13 @@
         <v>1303</v>
       </c>
       <c r="I222" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J222" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1917</v>
       </c>
@@ -10548,13 +10548,13 @@
         <v>1303</v>
       </c>
       <c r="I223" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J223" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1917</v>
       </c>
@@ -10577,10 +10577,10 @@
         <v>1304</v>
       </c>
       <c r="I224" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1917</v>
       </c>
@@ -10603,10 +10603,10 @@
         <v>1304</v>
       </c>
       <c r="I225" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1917</v>
       </c>
@@ -10629,10 +10629,10 @@
         <v>1304</v>
       </c>
       <c r="I226" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1917</v>
       </c>
@@ -10655,10 +10655,10 @@
         <v>1304</v>
       </c>
       <c r="I227" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1917</v>
       </c>
@@ -10681,10 +10681,10 @@
         <v>1304</v>
       </c>
       <c r="I228" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1917</v>
       </c>
@@ -10707,10 +10707,10 @@
         <v>1382</v>
       </c>
       <c r="I229" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1917</v>
       </c>
@@ -10733,10 +10733,10 @@
         <v>1382</v>
       </c>
       <c r="I230" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1917</v>
       </c>
@@ -10759,13 +10759,13 @@
         <v>1305</v>
       </c>
       <c r="I231" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J231" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1917</v>
       </c>
@@ -10788,13 +10788,13 @@
         <v>1305</v>
       </c>
       <c r="I232" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J232" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1917</v>
       </c>
@@ -10817,13 +10817,13 @@
         <v>1305</v>
       </c>
       <c r="I233" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J233" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1917</v>
       </c>
@@ -10846,13 +10846,13 @@
         <v>1305</v>
       </c>
       <c r="I234" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J234" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1917</v>
       </c>
@@ -10875,13 +10875,13 @@
         <v>1305</v>
       </c>
       <c r="I235" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J235" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1917</v>
       </c>
@@ -10904,13 +10904,13 @@
         <v>1305</v>
       </c>
       <c r="I236" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J236" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1917</v>
       </c>
@@ -10933,10 +10933,10 @@
         <v>1306</v>
       </c>
       <c r="I237" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1917</v>
       </c>
@@ -10959,10 +10959,10 @@
         <v>1307</v>
       </c>
       <c r="I238" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1917</v>
       </c>
@@ -10985,10 +10985,10 @@
         <v>1307</v>
       </c>
       <c r="I239" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1917</v>
       </c>
@@ -11011,10 +11011,10 @@
         <v>1308</v>
       </c>
       <c r="I240" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1917</v>
       </c>
@@ -11037,10 +11037,10 @@
         <v>1309</v>
       </c>
       <c r="I241" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1917</v>
       </c>
@@ -11063,10 +11063,10 @@
         <v>1309</v>
       </c>
       <c r="I242" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1917</v>
       </c>
@@ -11089,10 +11089,10 @@
         <v>1310</v>
       </c>
       <c r="I243" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1917</v>
       </c>
@@ -11115,10 +11115,10 @@
         <v>1310</v>
       </c>
       <c r="I244" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1917</v>
       </c>
@@ -11141,10 +11141,10 @@
         <v>1308</v>
       </c>
       <c r="I245" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1917</v>
       </c>
@@ -11167,10 +11167,10 @@
         <v>1311</v>
       </c>
       <c r="I246" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1917</v>
       </c>
@@ -11193,10 +11193,10 @@
         <v>1311</v>
       </c>
       <c r="I247" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1917</v>
       </c>
@@ -11216,13 +11216,13 @@
         <v>1124</v>
       </c>
       <c r="H248" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I248" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1917</v>
       </c>
@@ -11242,13 +11242,13 @@
         <v>1125</v>
       </c>
       <c r="H249" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I249" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1917</v>
       </c>
@@ -11268,13 +11268,13 @@
         <v>961</v>
       </c>
       <c r="H250" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I250" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1917</v>
       </c>
@@ -11294,13 +11294,13 @@
         <v>1126</v>
       </c>
       <c r="H251" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I251" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1917</v>
       </c>
@@ -11320,13 +11320,13 @@
         <v>1127</v>
       </c>
       <c r="H252" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I252" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1917</v>
       </c>
@@ -11346,13 +11346,13 @@
         <v>974</v>
       </c>
       <c r="H253" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I253" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1917</v>
       </c>
@@ -11375,10 +11375,10 @@
         <v>1309</v>
       </c>
       <c r="I254" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1917</v>
       </c>
@@ -11401,10 +11401,10 @@
         <v>1312</v>
       </c>
       <c r="I255" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1917</v>
       </c>
@@ -11427,10 +11427,10 @@
         <v>1312</v>
       </c>
       <c r="I256" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1917</v>
       </c>
@@ -11453,10 +11453,10 @@
         <v>1311</v>
       </c>
       <c r="I257" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1917</v>
       </c>
@@ -11479,10 +11479,10 @@
         <v>1308</v>
       </c>
       <c r="I258" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1917</v>
       </c>
@@ -11502,13 +11502,13 @@
         <v>1130</v>
       </c>
       <c r="H259" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I259" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1917</v>
       </c>
@@ -11531,10 +11531,10 @@
         <v>1308</v>
       </c>
       <c r="I260" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1917</v>
       </c>
@@ -11557,10 +11557,10 @@
         <v>1308</v>
       </c>
       <c r="I261" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1917</v>
       </c>
@@ -11580,13 +11580,13 @@
         <v>1133</v>
       </c>
       <c r="H262" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I262" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1917</v>
       </c>
@@ -11609,10 +11609,10 @@
         <v>1313</v>
       </c>
       <c r="I263" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1917</v>
       </c>
@@ -11635,10 +11635,10 @@
         <v>1314</v>
       </c>
       <c r="I264" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1917</v>
       </c>
@@ -11661,10 +11661,10 @@
         <v>1314</v>
       </c>
       <c r="I265" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1917</v>
       </c>
@@ -11687,10 +11687,10 @@
         <v>1314</v>
       </c>
       <c r="I266" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1917</v>
       </c>
@@ -11713,10 +11713,10 @@
         <v>1314</v>
       </c>
       <c r="I267" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1917</v>
       </c>
@@ -11739,10 +11739,10 @@
         <v>1314</v>
       </c>
       <c r="I268" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1917</v>
       </c>
@@ -11765,10 +11765,10 @@
         <v>1245</v>
       </c>
       <c r="I269" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1917</v>
       </c>
@@ -11791,10 +11791,10 @@
         <v>1315</v>
       </c>
       <c r="I270" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1917</v>
       </c>
@@ -11817,10 +11817,10 @@
         <v>1315</v>
       </c>
       <c r="I271" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1917</v>
       </c>
@@ -11843,10 +11843,10 @@
         <v>1316</v>
       </c>
       <c r="I272" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1917</v>
       </c>
@@ -11869,10 +11869,10 @@
         <v>1316</v>
       </c>
       <c r="I273" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1917</v>
       </c>
@@ -11895,10 +11895,10 @@
         <v>1384</v>
       </c>
       <c r="I274" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1917</v>
       </c>
@@ -11921,10 +11921,10 @@
         <v>1315</v>
       </c>
       <c r="I275" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1917</v>
       </c>
@@ -11947,10 +11947,10 @@
         <v>1315</v>
       </c>
       <c r="I276" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1917</v>
       </c>
@@ -11973,10 +11973,10 @@
         <v>1384</v>
       </c>
       <c r="I277" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1917</v>
       </c>
@@ -11999,10 +11999,10 @@
         <v>1385</v>
       </c>
       <c r="I278" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1917</v>
       </c>
@@ -12025,10 +12025,10 @@
         <v>1315</v>
       </c>
       <c r="I279" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1917</v>
       </c>
@@ -12051,10 +12051,10 @@
         <v>1384</v>
       </c>
       <c r="I280" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1917</v>
       </c>
@@ -12077,10 +12077,10 @@
         <v>1317</v>
       </c>
       <c r="I281" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1917</v>
       </c>
@@ -12103,10 +12103,10 @@
         <v>1317</v>
       </c>
       <c r="I282" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1917</v>
       </c>
@@ -12129,10 +12129,10 @@
         <v>1317</v>
       </c>
       <c r="I283" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1917</v>
       </c>
@@ -12152,13 +12152,13 @@
         <v>1150</v>
       </c>
       <c r="H284" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I284" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1917</v>
       </c>
@@ -12181,10 +12181,10 @@
         <v>1315</v>
       </c>
       <c r="I285" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1917</v>
       </c>
@@ -12207,10 +12207,10 @@
         <v>1317</v>
       </c>
       <c r="I286" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1917</v>
       </c>
@@ -12233,10 +12233,10 @@
         <v>1384</v>
       </c>
       <c r="I287" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1917</v>
       </c>
@@ -12259,10 +12259,10 @@
         <v>1384</v>
       </c>
       <c r="I288" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1917</v>
       </c>
@@ -12285,10 +12285,10 @@
         <v>1265</v>
       </c>
       <c r="I289" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1917</v>
       </c>
@@ -12311,10 +12311,10 @@
         <v>1265</v>
       </c>
       <c r="I290" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1917</v>
       </c>
@@ -12337,10 +12337,10 @@
         <v>1265</v>
       </c>
       <c r="I291" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1917</v>
       </c>
@@ -12363,10 +12363,10 @@
         <v>1386</v>
       </c>
       <c r="I292" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1917</v>
       </c>
@@ -12389,10 +12389,10 @@
         <v>1383</v>
       </c>
       <c r="I293" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1917</v>
       </c>
@@ -12415,10 +12415,10 @@
         <v>1383</v>
       </c>
       <c r="I294" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1917</v>
       </c>
@@ -12441,10 +12441,10 @@
         <v>1318</v>
       </c>
       <c r="I295" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1917</v>
       </c>
@@ -12467,13 +12467,13 @@
         <v>1319</v>
       </c>
       <c r="I296" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J296" t="s">
         <v>1409</v>
       </c>
-      <c r="J296" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1917</v>
       </c>
@@ -12496,13 +12496,13 @@
         <v>1319</v>
       </c>
       <c r="I297" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J297" t="s">
         <v>1409</v>
       </c>
-      <c r="J297" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1917</v>
       </c>
@@ -12525,13 +12525,13 @@
         <v>1319</v>
       </c>
       <c r="I298" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J298" t="s">
         <v>1409</v>
       </c>
-      <c r="J298" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1917</v>
       </c>
@@ -12554,13 +12554,13 @@
         <v>1319</v>
       </c>
       <c r="I299" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J299" t="s">
         <v>1409</v>
       </c>
-      <c r="J299" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1917</v>
       </c>
@@ -12583,10 +12583,10 @@
         <v>1320</v>
       </c>
       <c r="I300" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1917</v>
       </c>
@@ -12609,10 +12609,10 @@
         <v>1320</v>
       </c>
       <c r="I301" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1917</v>
       </c>
@@ -12632,13 +12632,13 @@
         <v>935</v>
       </c>
       <c r="H302" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I302" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1917</v>
       </c>
@@ -12658,13 +12658,13 @@
         <v>942</v>
       </c>
       <c r="H303" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I303" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1917</v>
       </c>
@@ -12687,10 +12687,10 @@
         <v>1321</v>
       </c>
       <c r="I304" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1917</v>
       </c>
@@ -12713,10 +12713,10 @@
         <v>1265</v>
       </c>
       <c r="I305" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1917</v>
       </c>
@@ -12739,10 +12739,10 @@
         <v>1265</v>
       </c>
       <c r="I306" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1917</v>
       </c>
@@ -12765,10 +12765,10 @@
         <v>1265</v>
       </c>
       <c r="I307" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1917</v>
       </c>
@@ -12791,10 +12791,10 @@
         <v>1383</v>
       </c>
       <c r="I308" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1917</v>
       </c>
@@ -12817,13 +12817,13 @@
         <v>1319</v>
       </c>
       <c r="I309" t="s">
+        <v>1406</v>
+      </c>
+      <c r="J309" t="s">
         <v>1409</v>
       </c>
-      <c r="J309" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1917</v>
       </c>
@@ -12846,10 +12846,10 @@
         <v>1322</v>
       </c>
       <c r="I310" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1917</v>
       </c>
@@ -12872,10 +12872,10 @@
         <v>1322</v>
       </c>
       <c r="I311" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1917</v>
       </c>
@@ -12901,10 +12901,10 @@
         <v>1322</v>
       </c>
       <c r="I312" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1917</v>
       </c>
@@ -12930,10 +12930,10 @@
         <v>1322</v>
       </c>
       <c r="I313" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1917</v>
       </c>
@@ -12956,10 +12956,10 @@
         <v>1322</v>
       </c>
       <c r="I314" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1917</v>
       </c>
@@ -12982,10 +12982,10 @@
         <v>1322</v>
       </c>
       <c r="I315" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1917</v>
       </c>
@@ -13008,10 +13008,10 @@
         <v>1323</v>
       </c>
       <c r="I316" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1917</v>
       </c>
@@ -13034,10 +13034,10 @@
         <v>1324</v>
       </c>
       <c r="I317" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1917</v>
       </c>
@@ -13060,10 +13060,10 @@
         <v>1325</v>
       </c>
       <c r="I318" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1917</v>
       </c>
@@ -13086,10 +13086,10 @@
         <v>1326</v>
       </c>
       <c r="I319" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1917</v>
       </c>
@@ -13112,10 +13112,10 @@
         <v>1323</v>
       </c>
       <c r="I320" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1917</v>
       </c>
@@ -13138,10 +13138,10 @@
         <v>1324</v>
       </c>
       <c r="I321" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1917</v>
       </c>
@@ -13164,10 +13164,10 @@
         <v>1326</v>
       </c>
       <c r="I322" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1917</v>
       </c>
@@ -13190,10 +13190,10 @@
         <v>1324</v>
       </c>
       <c r="I323" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1917</v>
       </c>
@@ -13216,10 +13216,10 @@
         <v>1268</v>
       </c>
       <c r="I324" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1917</v>
       </c>
@@ -13242,10 +13242,10 @@
         <v>1268</v>
       </c>
       <c r="I325" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1917</v>
       </c>
@@ -13268,10 +13268,10 @@
         <v>1323</v>
       </c>
       <c r="I326" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1917</v>
       </c>
@@ -13294,10 +13294,10 @@
         <v>1327</v>
       </c>
       <c r="I327" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1917</v>
       </c>
@@ -13320,10 +13320,10 @@
         <v>1327</v>
       </c>
       <c r="I328" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1917</v>
       </c>
@@ -13346,10 +13346,10 @@
         <v>1323</v>
       </c>
       <c r="I329" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1917</v>
       </c>
@@ -13372,10 +13372,10 @@
         <v>1324</v>
       </c>
       <c r="I330" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1917</v>
       </c>
@@ -13398,10 +13398,10 @@
         <v>1328</v>
       </c>
       <c r="I331" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1917</v>
       </c>
@@ -13421,13 +13421,13 @@
         <v>1179</v>
       </c>
       <c r="H332" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I332" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1917</v>
       </c>
@@ -13450,10 +13450,10 @@
         <v>1329</v>
       </c>
       <c r="I333" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1917</v>
       </c>
@@ -13476,10 +13476,10 @@
         <v>1387</v>
       </c>
       <c r="I334" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1917</v>
       </c>
@@ -13502,10 +13502,10 @@
         <v>1387</v>
       </c>
       <c r="I335" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1917</v>
       </c>
@@ -13528,10 +13528,10 @@
         <v>1328</v>
       </c>
       <c r="I336" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1917</v>
       </c>
@@ -13551,13 +13551,13 @@
         <v>1180</v>
       </c>
       <c r="H337" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I337" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1917</v>
       </c>
@@ -13580,10 +13580,10 @@
         <v>1388</v>
       </c>
       <c r="I338" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1917</v>
       </c>
@@ -13606,10 +13606,10 @@
         <v>1388</v>
       </c>
       <c r="I339" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1917</v>
       </c>
@@ -13632,10 +13632,10 @@
         <v>1388</v>
       </c>
       <c r="I340" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1917</v>
       </c>
@@ -13658,10 +13658,10 @@
         <v>1330</v>
       </c>
       <c r="I341" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1917</v>
       </c>
@@ -13684,10 +13684,10 @@
         <v>1330</v>
       </c>
       <c r="I342" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1917</v>
       </c>
@@ -13710,10 +13710,10 @@
         <v>1331</v>
       </c>
       <c r="I343" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1917</v>
       </c>
@@ -13733,13 +13733,13 @@
         <v>1184</v>
       </c>
       <c r="H344" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I344" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1917</v>
       </c>
@@ -13759,13 +13759,13 @@
         <v>1185</v>
       </c>
       <c r="H345" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I345" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1917</v>
       </c>
@@ -13788,10 +13788,10 @@
         <v>1388</v>
       </c>
       <c r="I346" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1917</v>
       </c>
@@ -13814,10 +13814,10 @@
         <v>1332</v>
       </c>
       <c r="I347" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1917</v>
       </c>
@@ -13840,10 +13840,10 @@
         <v>1328</v>
       </c>
       <c r="I348" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1917</v>
       </c>
@@ -13866,10 +13866,10 @@
         <v>1284</v>
       </c>
       <c r="I349" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1917</v>
       </c>
@@ -13892,10 +13892,10 @@
         <v>1333</v>
       </c>
       <c r="I350" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1917</v>
       </c>
@@ -13918,10 +13918,10 @@
         <v>1317</v>
       </c>
       <c r="I351" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1917</v>
       </c>
@@ -13941,13 +13941,13 @@
         <v>1030</v>
       </c>
       <c r="H352" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I352" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1917</v>
       </c>
@@ -13967,13 +13967,13 @@
         <v>1189</v>
       </c>
       <c r="H353" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I353" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1917</v>
       </c>
@@ -13996,10 +13996,10 @@
         <v>1333</v>
       </c>
       <c r="I354" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1917</v>
       </c>
@@ -14022,10 +14022,10 @@
         <v>1333</v>
       </c>
       <c r="I355" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1917</v>
       </c>
@@ -14048,10 +14048,10 @@
         <v>1330</v>
       </c>
       <c r="I356" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1917</v>
       </c>
@@ -14074,10 +14074,10 @@
         <v>1284</v>
       </c>
       <c r="I357" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1917</v>
       </c>
@@ -14100,10 +14100,10 @@
         <v>1334</v>
       </c>
       <c r="I358" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1917</v>
       </c>
@@ -14126,10 +14126,10 @@
         <v>1334</v>
       </c>
       <c r="I359" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1917</v>
       </c>
@@ -14152,10 +14152,10 @@
         <v>1335</v>
       </c>
       <c r="I360" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1917</v>
       </c>
@@ -14178,10 +14178,10 @@
         <v>1336</v>
       </c>
       <c r="I361" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1917</v>
       </c>
@@ -14204,10 +14204,10 @@
         <v>1337</v>
       </c>
       <c r="I362" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1917</v>
       </c>
@@ -14230,10 +14230,10 @@
         <v>1384</v>
       </c>
       <c r="I363" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1917</v>
       </c>
@@ -14253,13 +14253,13 @@
         <v>933</v>
       </c>
       <c r="H364" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I364" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1917</v>
       </c>
@@ -14282,10 +14282,10 @@
         <v>1338</v>
       </c>
       <c r="I365" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1917</v>
       </c>
@@ -14308,10 +14308,10 @@
         <v>1389</v>
       </c>
       <c r="I366" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1917</v>
       </c>
@@ -14334,10 +14334,10 @@
         <v>1389</v>
       </c>
       <c r="I367" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1917</v>
       </c>
@@ -14360,10 +14360,10 @@
         <v>1389</v>
       </c>
       <c r="I368" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1917</v>
       </c>
@@ -14386,10 +14386,10 @@
         <v>1389</v>
       </c>
       <c r="I369" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1917</v>
       </c>
@@ -14412,10 +14412,10 @@
         <v>1339</v>
       </c>
       <c r="I370" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1917</v>
       </c>
@@ -14438,10 +14438,10 @@
         <v>1339</v>
       </c>
       <c r="I371" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1917</v>
       </c>
@@ -14464,10 +14464,10 @@
         <v>1340</v>
       </c>
       <c r="I372" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1917</v>
       </c>
@@ -14490,10 +14490,10 @@
         <v>1340</v>
       </c>
       <c r="I373" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1917</v>
       </c>
@@ -14519,10 +14519,10 @@
         <v>1341</v>
       </c>
       <c r="I374" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1917</v>
       </c>
@@ -14548,10 +14548,10 @@
         <v>1341</v>
       </c>
       <c r="I375" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1917</v>
       </c>
@@ -14577,10 +14577,10 @@
         <v>1341</v>
       </c>
       <c r="I376" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1917</v>
       </c>
@@ -14606,10 +14606,10 @@
         <v>1341</v>
       </c>
       <c r="I377" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1917</v>
       </c>
@@ -14632,13 +14632,13 @@
         <v>1201</v>
       </c>
       <c r="H378" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I378" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1917</v>
       </c>
@@ -14658,13 +14658,13 @@
         <v>1202</v>
       </c>
       <c r="H379" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I379" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1917</v>
       </c>
@@ -14684,13 +14684,13 @@
         <v>1203</v>
       </c>
       <c r="H380" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I380" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1917</v>
       </c>
@@ -14710,13 +14710,13 @@
         <v>1204</v>
       </c>
       <c r="H381" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I381" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1917</v>
       </c>
@@ -14736,13 +14736,13 @@
         <v>1007</v>
       </c>
       <c r="H382" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I382" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1917</v>
       </c>
@@ -14762,13 +14762,13 @@
         <v>1205</v>
       </c>
       <c r="H383" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I383" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1917</v>
       </c>
@@ -14791,10 +14791,10 @@
         <v>1342</v>
       </c>
       <c r="I384" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1917</v>
       </c>
@@ -14817,10 +14817,10 @@
         <v>1342</v>
       </c>
       <c r="I385" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1917</v>
       </c>
@@ -14843,10 +14843,10 @@
         <v>1343</v>
       </c>
       <c r="I386" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1917</v>
       </c>
@@ -14869,10 +14869,10 @@
         <v>1343</v>
       </c>
       <c r="I387" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1917</v>
       </c>
@@ -14895,10 +14895,10 @@
         <v>1344</v>
       </c>
       <c r="I388" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1917</v>
       </c>
@@ -14921,10 +14921,10 @@
         <v>1344</v>
       </c>
       <c r="I389" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1917</v>
       </c>
@@ -14950,10 +14950,10 @@
         <v>1345</v>
       </c>
       <c r="I390" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1917</v>
       </c>
@@ -14976,10 +14976,10 @@
         <v>1345</v>
       </c>
       <c r="I391" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1917</v>
       </c>
@@ -15002,10 +15002,10 @@
         <v>1345</v>
       </c>
       <c r="I392" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1917</v>
       </c>
@@ -15028,10 +15028,10 @@
         <v>1345</v>
       </c>
       <c r="I393" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1917</v>
       </c>
@@ -15054,10 +15054,10 @@
         <v>1346</v>
       </c>
       <c r="I394" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1917</v>
       </c>
@@ -15080,10 +15080,10 @@
         <v>1346</v>
       </c>
       <c r="I395" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1917</v>
       </c>
@@ -15106,10 +15106,10 @@
         <v>1346</v>
       </c>
       <c r="I396" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1917</v>
       </c>
@@ -15132,10 +15132,10 @@
         <v>1346</v>
       </c>
       <c r="I397" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1917</v>
       </c>
@@ -15158,10 +15158,10 @@
         <v>1346</v>
       </c>
       <c r="I398" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1917</v>
       </c>
@@ -15184,10 +15184,10 @@
         <v>1346</v>
       </c>
       <c r="I399" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1917</v>
       </c>
@@ -15210,10 +15210,10 @@
         <v>1346</v>
       </c>
       <c r="I400" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1917</v>
       </c>
@@ -15236,10 +15236,10 @@
         <v>1346</v>
       </c>
       <c r="I401" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1917</v>
       </c>
@@ -15262,10 +15262,10 @@
         <v>1347</v>
       </c>
       <c r="I402" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1917</v>
       </c>
@@ -15288,10 +15288,10 @@
         <v>1347</v>
       </c>
       <c r="I403" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1917</v>
       </c>
@@ -15314,10 +15314,10 @@
         <v>1348</v>
       </c>
       <c r="I404" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1917</v>
       </c>
@@ -15340,10 +15340,10 @@
         <v>1348</v>
       </c>
       <c r="I405" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1917</v>
       </c>
@@ -15366,10 +15366,10 @@
         <v>1348</v>
       </c>
       <c r="I406" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1917</v>
       </c>
@@ -15395,10 +15395,10 @@
         <v>1349</v>
       </c>
       <c r="I407" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1917</v>
       </c>
@@ -15424,10 +15424,10 @@
         <v>1349</v>
       </c>
       <c r="I408" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1917</v>
       </c>
@@ -15453,10 +15453,10 @@
         <v>1349</v>
       </c>
       <c r="I409" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1917</v>
       </c>
@@ -15482,10 +15482,10 @@
         <v>1349</v>
       </c>
       <c r="I410" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1917</v>
       </c>
@@ -15511,10 +15511,10 @@
         <v>1349</v>
       </c>
       <c r="I411" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1917</v>
       </c>
@@ -15540,10 +15540,10 @@
         <v>1349</v>
       </c>
       <c r="I412" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1917</v>
       </c>
@@ -15569,10 +15569,10 @@
         <v>1350</v>
       </c>
       <c r="I413" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1917</v>
       </c>
@@ -15598,10 +15598,10 @@
         <v>1350</v>
       </c>
       <c r="I414" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1917</v>
       </c>
@@ -15627,10 +15627,10 @@
         <v>1350</v>
       </c>
       <c r="I415" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1917</v>
       </c>
@@ -15656,10 +15656,10 @@
         <v>1350</v>
       </c>
       <c r="I416" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1917</v>
       </c>
@@ -15685,10 +15685,10 @@
         <v>1350</v>
       </c>
       <c r="I417" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1917</v>
       </c>
@@ -15714,10 +15714,10 @@
         <v>1350</v>
       </c>
       <c r="I418" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1917</v>
       </c>
@@ -15740,10 +15740,10 @@
         <v>1351</v>
       </c>
       <c r="I419" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1917</v>
       </c>
@@ -15766,10 +15766,10 @@
         <v>1351</v>
       </c>
       <c r="I420" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1917</v>
       </c>
@@ -15792,10 +15792,10 @@
         <v>1264</v>
       </c>
       <c r="I421" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1917</v>
       </c>
@@ -15818,10 +15818,10 @@
         <v>1264</v>
       </c>
       <c r="I422" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1917</v>
       </c>
@@ -15844,10 +15844,10 @@
         <v>1264</v>
       </c>
       <c r="I423" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1917</v>
       </c>
@@ -15870,10 +15870,10 @@
         <v>1264</v>
       </c>
       <c r="I424" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1917</v>
       </c>
@@ -15896,10 +15896,10 @@
         <v>1264</v>
       </c>
       <c r="I425" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1917</v>
       </c>
@@ -15922,10 +15922,10 @@
         <v>1390</v>
       </c>
       <c r="I426" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1917</v>
       </c>
@@ -15948,10 +15948,10 @@
         <v>1352</v>
       </c>
       <c r="I427" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1917</v>
       </c>
@@ -15974,10 +15974,10 @@
         <v>1391</v>
       </c>
       <c r="I428" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1917</v>
       </c>
@@ -16000,10 +16000,10 @@
         <v>1391</v>
       </c>
       <c r="I429" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1917</v>
       </c>
@@ -16026,10 +16026,10 @@
         <v>1391</v>
       </c>
       <c r="I430" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1917</v>
       </c>
@@ -16052,10 +16052,10 @@
         <v>1391</v>
       </c>
       <c r="I431" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1917</v>
       </c>
@@ -16078,10 +16078,10 @@
         <v>1391</v>
       </c>
       <c r="I432" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1917</v>
       </c>
@@ -16104,10 +16104,10 @@
         <v>1391</v>
       </c>
       <c r="I433" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1917</v>
       </c>
@@ -16130,10 +16130,10 @@
         <v>1353</v>
       </c>
       <c r="I434" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1917</v>
       </c>
@@ -16156,10 +16156,10 @@
         <v>1353</v>
       </c>
       <c r="I435" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1917</v>
       </c>
@@ -16182,16 +16182,16 @@
         <v>1353</v>
       </c>
       <c r="I436" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="L436" t="s">
         <v>1356</v>
       </c>
       <c r="M436" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1917</v>
       </c>
@@ -16214,10 +16214,10 @@
         <v>1353</v>
       </c>
       <c r="I437" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1917</v>
       </c>
@@ -16240,16 +16240,16 @@
         <v>1353</v>
       </c>
       <c r="I438" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="L438" t="s">
         <v>1356</v>
       </c>
       <c r="M438" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1917</v>
       </c>
@@ -16272,10 +16272,10 @@
         <v>1354</v>
       </c>
       <c r="I439" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1917</v>
       </c>
@@ -16298,16 +16298,16 @@
         <v>1354</v>
       </c>
       <c r="I440" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="L440" t="s">
         <v>1356</v>
       </c>
       <c r="M440" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1917</v>
       </c>
@@ -16330,10 +16330,10 @@
         <v>1355</v>
       </c>
       <c r="I441" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1917</v>
       </c>
@@ -16356,10 +16356,10 @@
         <v>1356</v>
       </c>
       <c r="I442" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1917</v>
       </c>
@@ -16385,13 +16385,13 @@
         <v>1357</v>
       </c>
       <c r="I443" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J443" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1917</v>
       </c>
@@ -16414,19 +16414,19 @@
         <v>1357</v>
       </c>
       <c r="I444" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J444" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="L444" t="s">
         <v>1360</v>
       </c>
       <c r="M444" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1917</v>
       </c>
@@ -16449,19 +16449,19 @@
         <v>1357</v>
       </c>
       <c r="I445" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J445" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="L445" t="s">
         <v>1360</v>
       </c>
       <c r="M445" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1917</v>
       </c>
@@ -16484,13 +16484,13 @@
         <v>1357</v>
       </c>
       <c r="I446" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="J446" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1917</v>
       </c>
@@ -16513,10 +16513,10 @@
         <v>1392</v>
       </c>
       <c r="I447" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1917</v>
       </c>
@@ -16539,10 +16539,10 @@
         <v>1392</v>
       </c>
       <c r="I448" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1917</v>
       </c>
@@ -16565,10 +16565,10 @@
         <v>1392</v>
       </c>
       <c r="I449" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1917</v>
       </c>
@@ -16591,10 +16591,10 @@
         <v>1358</v>
       </c>
       <c r="I450" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1917</v>
       </c>
@@ -16617,10 +16617,10 @@
         <v>1358</v>
       </c>
       <c r="I451" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1917</v>
       </c>
@@ -16643,10 +16643,10 @@
         <v>1359</v>
       </c>
       <c r="I452" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1917</v>
       </c>
@@ -16669,10 +16669,10 @@
         <v>1359</v>
       </c>
       <c r="I453" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1917</v>
       </c>
@@ -16695,10 +16695,10 @@
         <v>1360</v>
       </c>
       <c r="I454" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1917</v>
       </c>
@@ -16721,10 +16721,10 @@
         <v>1393</v>
       </c>
       <c r="I455" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1917</v>
       </c>
@@ -16747,10 +16747,10 @@
         <v>1393</v>
       </c>
       <c r="I456" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1917</v>
       </c>
@@ -16773,10 +16773,10 @@
         <v>1361</v>
       </c>
       <c r="I457" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1917</v>
       </c>
@@ -16799,10 +16799,10 @@
         <v>1361</v>
       </c>
       <c r="I458" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1917</v>
       </c>
@@ -16825,10 +16825,10 @@
         <v>1361</v>
       </c>
       <c r="I459" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1917</v>
       </c>
@@ -16851,10 +16851,10 @@
         <v>1361</v>
       </c>
       <c r="I460" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1917</v>
       </c>
@@ -16877,10 +16877,10 @@
         <v>1361</v>
       </c>
       <c r="I461" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1917</v>
       </c>
@@ -16903,10 +16903,10 @@
         <v>1362</v>
       </c>
       <c r="I462" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1917</v>
       </c>
@@ -16929,10 +16929,10 @@
         <v>1363</v>
       </c>
       <c r="I463" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1917</v>
       </c>
@@ -16955,7 +16955,7 @@
         <v>1364</v>
       </c>
       <c r="I464" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1917_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1917_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F8A4BE-F93D-4EA8-BE22-0CDC8873D118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C132871-C16C-4E6F-B104-16CA351F2EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1423">
   <si>
     <t>Sommer</t>
   </si>
@@ -1778,9 +1778,6 @@
     <t>Pharmakotheraphie.</t>
   </si>
   <si>
-    <t>Rezeptier- und Dispensierkurs. Gemeinsam mit Kantonsapotheker Dr. Hubacher.</t>
-  </si>
-  <si>
     <t>Arbeiten im pharmakologischen Institut.</t>
   </si>
   <si>
@@ -3788,9 +3785,6 @@
     <t>egger_a</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3866,9 +3860,6 @@
     <t>steiger_o</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>oswald_a</t>
   </si>
   <si>
@@ -4109,9 +4100,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>tschulok_s</t>
   </si>
   <si>
@@ -4124,9 +4112,6 @@
     <t>brandenberger_c</t>
   </si>
   <si>
-    <t>egli_k</t>
-  </si>
-  <si>
     <t>bosshard_h</t>
   </si>
   <si>
@@ -4151,9 +4136,6 @@
     <t>mueller_h2</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>hess_wr</t>
   </si>
   <si>
@@ -4166,15 +4148,9 @@
     <t>sauerbruch_f</t>
   </si>
   <si>
-    <t>brun_r</t>
-  </si>
-  <si>
     <t>hoessly_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -4232,9 +4208,6 @@
     <t>veraguth_o</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>vongonzenbach_w</t>
   </si>
   <si>
@@ -4271,9 +4244,6 @@
     <t>Doz</t>
   </si>
   <si>
-    <t>frey_h</t>
-  </si>
-  <si>
     <t>vakant</t>
   </si>
   <si>
@@ -4299,6 +4269,39 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>frey_h2</t>
+  </si>
+  <si>
+    <t>brun_h</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>Rezeptier- und Dispensierkurs.</t>
+  </si>
+  <si>
+    <t>hubacher_k</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>egli_k2</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4340,11 +4343,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4648,11 +4654,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView tabSelected="1" topLeftCell="F161" workbookViewId="0">
+      <selection activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
@@ -4677,13 +4683,13 @@
         <v>473</v>
       </c>
       <c r="G1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I1" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4703,13 +4709,13 @@
         <v>474</v>
       </c>
       <c r="G2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I2" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4729,16 +4735,16 @@
         <v>475</v>
       </c>
       <c r="G3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H3" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I3" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J3" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4758,16 +4764,16 @@
         <v>476</v>
       </c>
       <c r="G4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H4" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I4" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J4" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4787,13 +4793,13 @@
         <v>477</v>
       </c>
       <c r="G5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H5" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I5" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4813,16 +4819,16 @@
         <v>478</v>
       </c>
       <c r="G6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H6" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I6" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J6" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4842,16 +4848,16 @@
         <v>479</v>
       </c>
       <c r="G7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H7" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I7" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J7" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4871,16 +4877,16 @@
         <v>480</v>
       </c>
       <c r="G8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H8" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="I8" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J8" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4900,13 +4906,13 @@
         <v>481</v>
       </c>
       <c r="G9" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H9" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I9" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4926,13 +4932,13 @@
         <v>482</v>
       </c>
       <c r="G10" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I10" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4952,13 +4958,13 @@
         <v>483</v>
       </c>
       <c r="G11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H11" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I11" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4978,13 +4984,13 @@
         <v>484</v>
       </c>
       <c r="G12" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H12" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I12" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -5004,13 +5010,13 @@
         <v>485</v>
       </c>
       <c r="G13" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H13" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I13" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -5030,13 +5036,13 @@
         <v>486</v>
       </c>
       <c r="G14" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H14" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I14" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -5056,13 +5062,13 @@
         <v>487</v>
       </c>
       <c r="G15" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H15" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="I15" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -5082,13 +5088,13 @@
         <v>488</v>
       </c>
       <c r="G16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I16" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -5108,13 +5114,13 @@
         <v>489</v>
       </c>
       <c r="G17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H17" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I17" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5134,13 +5140,13 @@
         <v>490</v>
       </c>
       <c r="G18" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H18" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I18" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -5160,13 +5166,13 @@
         <v>491</v>
       </c>
       <c r="G19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H19" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="I19" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -5186,13 +5192,13 @@
         <v>492</v>
       </c>
       <c r="G20" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I20" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>493</v>
       </c>
       <c r="G21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H21" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I21" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -5238,13 +5244,13 @@
         <v>494</v>
       </c>
       <c r="G22" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H22" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I22" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -5264,13 +5270,13 @@
         <v>495</v>
       </c>
       <c r="G23" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H23" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="I23" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -5290,13 +5296,13 @@
         <v>496</v>
       </c>
       <c r="G24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H24" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I24" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -5316,13 +5322,13 @@
         <v>497</v>
       </c>
       <c r="G25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H25" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I25" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5342,13 +5348,13 @@
         <v>498</v>
       </c>
       <c r="G26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H26" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="I26" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5368,13 +5374,13 @@
         <v>499</v>
       </c>
       <c r="G27" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H27" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="I27" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5394,13 +5400,13 @@
         <v>500</v>
       </c>
       <c r="G28" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H28" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="I28" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5420,13 +5426,13 @@
         <v>501</v>
       </c>
       <c r="G29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I29" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -5446,13 +5452,13 @@
         <v>502</v>
       </c>
       <c r="G30" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H30" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I30" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5472,13 +5478,13 @@
         <v>503</v>
       </c>
       <c r="G31" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H31" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I31" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5498,13 +5504,13 @@
         <v>504</v>
       </c>
       <c r="G32" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H32" t="s">
-        <v>1251</v>
+        <v>1419</v>
       </c>
       <c r="I32" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5524,13 +5530,13 @@
         <v>505</v>
       </c>
       <c r="G33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H33" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I33" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5550,13 +5556,13 @@
         <v>506</v>
       </c>
       <c r="G34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I34" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5576,13 +5582,13 @@
         <v>507</v>
       </c>
       <c r="G35" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H35" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="I35" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5602,13 +5608,13 @@
         <v>508</v>
       </c>
       <c r="G36" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H36" t="s">
-        <v>1419</v>
+        <v>1409</v>
       </c>
       <c r="I36" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5628,13 +5634,13 @@
         <v>509</v>
       </c>
       <c r="G37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H37" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I37" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5654,13 +5660,13 @@
         <v>510</v>
       </c>
       <c r="G38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H38" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I38" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5680,13 +5686,13 @@
         <v>511</v>
       </c>
       <c r="G39" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H39" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I39" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5706,13 +5712,13 @@
         <v>512</v>
       </c>
       <c r="G40" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H40" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I40" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5732,13 +5738,13 @@
         <v>513</v>
       </c>
       <c r="G41" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H41" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I41" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5758,13 +5764,13 @@
         <v>514</v>
       </c>
       <c r="G42" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H42" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I42" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5784,13 +5790,13 @@
         <v>515</v>
       </c>
       <c r="G43" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H43" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I43" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5810,13 +5816,13 @@
         <v>516</v>
       </c>
       <c r="G44" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H44" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I44" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5836,13 +5842,13 @@
         <v>517</v>
       </c>
       <c r="G45" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H45" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I45" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5862,13 +5868,13 @@
         <v>518</v>
       </c>
       <c r="G46" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H46" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I46" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5888,13 +5894,13 @@
         <v>519</v>
       </c>
       <c r="G47" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H47" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="I47" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5914,13 +5920,13 @@
         <v>520</v>
       </c>
       <c r="G48" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H48" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I48" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -5940,13 +5946,13 @@
         <v>521</v>
       </c>
       <c r="G49" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H49" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I49" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -5966,13 +5972,13 @@
         <v>522</v>
       </c>
       <c r="G50" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H50" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I50" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -5992,13 +5998,13 @@
         <v>523</v>
       </c>
       <c r="G51" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H51" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I51" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6018,13 +6024,13 @@
         <v>524</v>
       </c>
       <c r="G52" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H52" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I52" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6044,13 +6050,13 @@
         <v>525</v>
       </c>
       <c r="G53" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H53" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I53" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6070,13 +6076,13 @@
         <v>526</v>
       </c>
       <c r="G54" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H54" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I54" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -6096,13 +6102,13 @@
         <v>527</v>
       </c>
       <c r="G55" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H55" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I55" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -6122,13 +6128,13 @@
         <v>528</v>
       </c>
       <c r="G56" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H56" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I56" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -6148,13 +6154,13 @@
         <v>529</v>
       </c>
       <c r="G57" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H57" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I57" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -6174,13 +6180,13 @@
         <v>530</v>
       </c>
       <c r="G58" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H58" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I58" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -6200,13 +6206,13 @@
         <v>531</v>
       </c>
       <c r="G59" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H59" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I59" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -6226,13 +6232,13 @@
         <v>532</v>
       </c>
       <c r="G60" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H60" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I60" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -6252,13 +6258,13 @@
         <v>533</v>
       </c>
       <c r="G61" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H61" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I61" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -6278,13 +6284,13 @@
         <v>534</v>
       </c>
       <c r="G62" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H62" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I62" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -6304,13 +6310,13 @@
         <v>535</v>
       </c>
       <c r="G63" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H63" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I63" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -6330,13 +6336,13 @@
         <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H64" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I64" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6356,16 +6362,16 @@
         <v>537</v>
       </c>
       <c r="G65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H65" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I65" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J65" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6385,16 +6391,16 @@
         <v>538</v>
       </c>
       <c r="G66" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H66" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I66" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J66" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6414,13 +6420,13 @@
         <v>539</v>
       </c>
       <c r="G67" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H67" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="I67" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6440,13 +6446,13 @@
         <v>540</v>
       </c>
       <c r="G68" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H68" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="I68" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6466,13 +6472,13 @@
         <v>541</v>
       </c>
       <c r="G69" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H69" t="s">
-        <v>1251</v>
+        <v>1419</v>
       </c>
       <c r="I69" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6492,13 +6498,13 @@
         <v>542</v>
       </c>
       <c r="G70" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H70" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="I70" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6518,13 +6524,13 @@
         <v>543</v>
       </c>
       <c r="G71" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H71" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I71" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6544,13 +6550,13 @@
         <v>544</v>
       </c>
       <c r="G72" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H72" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I72" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6570,13 +6576,13 @@
         <v>545</v>
       </c>
       <c r="G73" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H73" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I73" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6596,13 +6602,13 @@
         <v>546</v>
       </c>
       <c r="G74" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H74" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I74" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6622,13 +6628,13 @@
         <v>547</v>
       </c>
       <c r="G75" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H75" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="I75" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6648,13 +6654,13 @@
         <v>548</v>
       </c>
       <c r="G76" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H76" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I76" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6674,13 +6680,13 @@
         <v>549</v>
       </c>
       <c r="G77" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H77" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I77" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6700,13 +6706,13 @@
         <v>550</v>
       </c>
       <c r="G78" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H78" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I78" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6726,13 +6732,13 @@
         <v>551</v>
       </c>
       <c r="G79" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H79" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I79" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6752,13 +6758,13 @@
         <v>552</v>
       </c>
       <c r="G80" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H80" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I80" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
@@ -6778,13 +6784,13 @@
         <v>553</v>
       </c>
       <c r="G81" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H81" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I81" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6804,13 +6810,13 @@
         <v>554</v>
       </c>
       <c r="G82" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H82" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="I82" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6830,16 +6836,16 @@
         <v>555</v>
       </c>
       <c r="G83" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H83" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="I83" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J83" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6859,16 +6865,16 @@
         <v>556</v>
       </c>
       <c r="G84" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H84" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I84" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J84" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6888,16 +6894,16 @@
         <v>557</v>
       </c>
       <c r="G85" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H85" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I85" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J85" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -6917,16 +6923,16 @@
         <v>558</v>
       </c>
       <c r="G86" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H86" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="I86" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J86" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -6946,13 +6952,13 @@
         <v>559</v>
       </c>
       <c r="G87" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H87" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I87" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -6975,13 +6981,13 @@
         <v>560</v>
       </c>
       <c r="G88" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H88" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I88" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7004,13 +7010,13 @@
         <v>561</v>
       </c>
       <c r="G89" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H89" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I89" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7030,25 +7036,25 @@
         <v>562</v>
       </c>
       <c r="G90" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H90" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I90" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="K90" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L90" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="M90" t="s">
         <v>1412</v>
       </c>
       <c r="N90" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7068,25 +7074,25 @@
         <v>563</v>
       </c>
       <c r="G91" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H91" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I91" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="K91" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="L91" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="M91" t="s">
         <v>1412</v>
       </c>
       <c r="N91" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7106,13 +7112,13 @@
         <v>564</v>
       </c>
       <c r="G92" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H92" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="I92" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7132,13 +7138,13 @@
         <v>565</v>
       </c>
       <c r="G93" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H93" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I93" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7161,13 +7167,13 @@
         <v>566</v>
       </c>
       <c r="G94" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H94" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="I94" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7187,13 +7193,13 @@
         <v>567</v>
       </c>
       <c r="G95" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H95" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="I95" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7213,16 +7219,16 @@
         <v>568</v>
       </c>
       <c r="G96" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H96" t="s">
-        <v>1372</v>
+        <v>1417</v>
       </c>
       <c r="I96" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1917</v>
       </c>
@@ -7239,16 +7245,16 @@
         <v>569</v>
       </c>
       <c r="G97" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H97" t="s">
-        <v>1372</v>
+        <v>1417</v>
       </c>
       <c r="I97" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1917</v>
       </c>
@@ -7265,16 +7271,16 @@
         <v>570</v>
       </c>
       <c r="G98" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H98" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="I98" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1917</v>
       </c>
@@ -7291,16 +7297,16 @@
         <v>571</v>
       </c>
       <c r="G99" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H99" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I99" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1917</v>
       </c>
@@ -7317,16 +7323,16 @@
         <v>572</v>
       </c>
       <c r="G100" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H100" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I100" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1917</v>
       </c>
@@ -7343,16 +7349,16 @@
         <v>572</v>
       </c>
       <c r="G101" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H101" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I101" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1917</v>
       </c>
@@ -7369,16 +7375,16 @@
         <v>573</v>
       </c>
       <c r="G102" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H102" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I102" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1917</v>
       </c>
@@ -7395,16 +7401,16 @@
         <v>574</v>
       </c>
       <c r="G103" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H103" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I103" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1917</v>
       </c>
@@ -7421,16 +7427,16 @@
         <v>575</v>
       </c>
       <c r="G104" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H104" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I104" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1917</v>
       </c>
@@ -7447,16 +7453,16 @@
         <v>576</v>
       </c>
       <c r="G105" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H105" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I105" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1917</v>
       </c>
@@ -7473,16 +7479,16 @@
         <v>577</v>
       </c>
       <c r="G106" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H106" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I106" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1917</v>
       </c>
@@ -7499,16 +7505,16 @@
         <v>578</v>
       </c>
       <c r="G107" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H107" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I107" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1917</v>
       </c>
@@ -7525,16 +7531,16 @@
         <v>579</v>
       </c>
       <c r="G108" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H108" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="I108" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1917</v>
       </c>
@@ -7551,16 +7557,16 @@
         <v>580</v>
       </c>
       <c r="G109" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H109" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="I109" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1917</v>
       </c>
@@ -7574,19 +7580,25 @@
         <v>469</v>
       </c>
       <c r="F110" t="s">
-        <v>581</v>
+        <v>1415</v>
       </c>
       <c r="G110" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H110" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="I110" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1917</v>
       </c>
@@ -7600,19 +7612,19 @@
         <v>469</v>
       </c>
       <c r="F111" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G111" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H111" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="I111" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1917</v>
       </c>
@@ -7626,16 +7638,16 @@
         <v>469</v>
       </c>
       <c r="F112" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G112" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H112" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I112" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7652,16 +7664,16 @@
         <v>469</v>
       </c>
       <c r="F113" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G113" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H113" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I113" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7678,16 +7690,16 @@
         <v>469</v>
       </c>
       <c r="F114" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G114" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H114" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="I114" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7704,16 +7716,16 @@
         <v>469</v>
       </c>
       <c r="F115" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G115" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H115" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I115" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7730,16 +7742,16 @@
         <v>469</v>
       </c>
       <c r="F116" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G116" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H116" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I116" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7756,16 +7768,16 @@
         <v>469</v>
       </c>
       <c r="F117" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G117" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H117" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="I117" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7782,16 +7794,16 @@
         <v>469</v>
       </c>
       <c r="F118" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G118" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H118" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="I118" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7808,16 +7820,16 @@
         <v>469</v>
       </c>
       <c r="F119" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G119" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H119" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="I119" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7834,16 +7846,16 @@
         <v>469</v>
       </c>
       <c r="F120" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G120" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H120" t="s">
-        <v>1394</v>
+        <v>1386</v>
       </c>
       <c r="I120" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7860,16 +7872,16 @@
         <v>469</v>
       </c>
       <c r="F121" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G121" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H121" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I121" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7886,16 +7898,16 @@
         <v>469</v>
       </c>
       <c r="F122" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G122" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H122" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I122" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7912,16 +7924,16 @@
         <v>469</v>
       </c>
       <c r="F123" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G123" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H123" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="I123" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7938,16 +7950,16 @@
         <v>469</v>
       </c>
       <c r="F124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G124" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H124" t="s">
-        <v>1277</v>
+        <v>1420</v>
       </c>
       <c r="I124" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7964,16 +7976,16 @@
         <v>469</v>
       </c>
       <c r="F125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G125" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H125" t="s">
-        <v>1277</v>
+        <v>1420</v>
       </c>
       <c r="I125" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7990,16 +8002,16 @@
         <v>469</v>
       </c>
       <c r="F126" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G126" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H126" t="s">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="I126" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -8016,16 +8028,16 @@
         <v>469</v>
       </c>
       <c r="F127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G127" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H127" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="I127" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -8042,16 +8054,16 @@
         <v>469</v>
       </c>
       <c r="F128" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G128" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H128" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I128" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -8068,22 +8080,22 @@
         <v>469</v>
       </c>
       <c r="F129" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G129" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H129" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="I129" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="K129" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="L129" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -8100,16 +8112,16 @@
         <v>469</v>
       </c>
       <c r="F130" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G130" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H130" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I130" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -8126,22 +8138,22 @@
         <v>469</v>
       </c>
       <c r="F131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G131" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H131" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="I131" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="K131" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="L131" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -8158,16 +8170,16 @@
         <v>469</v>
       </c>
       <c r="F132" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G132" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H132" t="s">
-        <v>1372</v>
+        <v>1417</v>
       </c>
       <c r="I132" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -8184,16 +8196,16 @@
         <v>469</v>
       </c>
       <c r="F133" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G133" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H133" t="s">
-        <v>1372</v>
+        <v>1417</v>
       </c>
       <c r="I133" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -8210,13 +8222,13 @@
         <v>469</v>
       </c>
       <c r="F134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G134" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H134" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -8233,13 +8245,13 @@
         <v>469</v>
       </c>
       <c r="F135" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G135" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H135" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -8256,13 +8268,13 @@
         <v>469</v>
       </c>
       <c r="F136" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G136" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H136" t="s">
-        <v>1413</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -8279,16 +8291,16 @@
         <v>469</v>
       </c>
       <c r="F137" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G137" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H137" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="I137" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -8305,16 +8317,16 @@
         <v>469</v>
       </c>
       <c r="F138" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G138" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H138" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I138" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -8331,16 +8343,16 @@
         <v>469</v>
       </c>
       <c r="F139" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G139" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H139" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="I139" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -8357,16 +8369,16 @@
         <v>469</v>
       </c>
       <c r="F140" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G140" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H140" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I140" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -8383,16 +8395,16 @@
         <v>469</v>
       </c>
       <c r="F141" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G141" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H141" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I141" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -8409,16 +8421,16 @@
         <v>469</v>
       </c>
       <c r="F142" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G142" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H142" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="I142" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -8435,16 +8447,16 @@
         <v>469</v>
       </c>
       <c r="F143" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G143" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H143" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="I143" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -8461,16 +8473,16 @@
         <v>469</v>
       </c>
       <c r="F144" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G144" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H144" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="I144" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -8487,16 +8499,16 @@
         <v>469</v>
       </c>
       <c r="F145" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G145" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H145" t="s">
-        <v>1377</v>
+        <v>1413</v>
       </c>
       <c r="I145" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -8513,16 +8525,16 @@
         <v>469</v>
       </c>
       <c r="F146" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G146" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H146" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="I146" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -8539,16 +8551,16 @@
         <v>469</v>
       </c>
       <c r="F147" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G147" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H147" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="I147" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -8565,16 +8577,16 @@
         <v>469</v>
       </c>
       <c r="F148" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G148" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H148" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="I148" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -8591,16 +8603,16 @@
         <v>469</v>
       </c>
       <c r="F149" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G149" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H149" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="I149" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -8617,16 +8629,16 @@
         <v>469</v>
       </c>
       <c r="F150" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G150" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H150" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="I150" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -8643,16 +8655,16 @@
         <v>469</v>
       </c>
       <c r="F151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G151" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H151" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="I151" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -8669,16 +8681,16 @@
         <v>469</v>
       </c>
       <c r="F152" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G152" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H152" t="s">
-        <v>1378</v>
+        <v>1371</v>
       </c>
       <c r="I152" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -8695,19 +8707,19 @@
         <v>469</v>
       </c>
       <c r="F153" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G153" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H153" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I153" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J153" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -8724,19 +8736,19 @@
         <v>469</v>
       </c>
       <c r="F154" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G154" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H154" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="I154" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J154" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -8753,16 +8765,16 @@
         <v>469</v>
       </c>
       <c r="F155" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G155" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H155" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="I155" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -8779,16 +8791,16 @@
         <v>469</v>
       </c>
       <c r="F156" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G156" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H156" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I156" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -8805,16 +8817,16 @@
         <v>469</v>
       </c>
       <c r="F157" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G157" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H157" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="I157" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -8831,16 +8843,16 @@
         <v>469</v>
       </c>
       <c r="F158" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G158" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H158" t="s">
-        <v>1379</v>
+        <v>1054</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>1414</v>
       </c>
       <c r="I158" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -8857,16 +8869,16 @@
         <v>469</v>
       </c>
       <c r="F159" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G159" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H159" t="s">
-        <v>1379</v>
+        <v>1039</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>1414</v>
       </c>
       <c r="I159" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -8883,16 +8895,16 @@
         <v>469</v>
       </c>
       <c r="F160" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G160" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H160" t="s">
-        <v>1380</v>
+        <v>1372</v>
       </c>
       <c r="I160" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -8909,22 +8921,22 @@
         <v>469</v>
       </c>
       <c r="F161" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G161" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H161" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="I161" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="K161" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="L161" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -8941,16 +8953,16 @@
         <v>469</v>
       </c>
       <c r="F162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G162" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H162" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="I162" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -8967,16 +8979,16 @@
         <v>469</v>
       </c>
       <c r="F163" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G163" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H163" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="I163" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -8993,16 +9005,16 @@
         <v>469</v>
       </c>
       <c r="F164" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G164" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H164" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I164" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -9019,16 +9031,16 @@
         <v>469</v>
       </c>
       <c r="F165" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G165" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H165" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="I165" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -9045,16 +9057,16 @@
         <v>469</v>
       </c>
       <c r="F166" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G166" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H166" t="s">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="I166" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -9071,16 +9083,16 @@
         <v>469</v>
       </c>
       <c r="F167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G167" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H167" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I167" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -9097,16 +9109,16 @@
         <v>469</v>
       </c>
       <c r="F168" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G168" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H168" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I168" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -9123,16 +9135,16 @@
         <v>469</v>
       </c>
       <c r="F169" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G169" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H169" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="I169" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -9149,16 +9161,16 @@
         <v>469</v>
       </c>
       <c r="F170" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G170" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H170" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I170" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -9175,16 +9187,16 @@
         <v>469</v>
       </c>
       <c r="F171" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G171" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H171" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="I171" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -9201,16 +9213,16 @@
         <v>469</v>
       </c>
       <c r="F172" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G172" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H172" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I172" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -9227,16 +9239,16 @@
         <v>469</v>
       </c>
       <c r="F173" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G173" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H173" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I173" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -9253,16 +9265,16 @@
         <v>469</v>
       </c>
       <c r="F174" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G174" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H174" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I174" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -9279,16 +9291,16 @@
         <v>469</v>
       </c>
       <c r="F175" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G175" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H175" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="I175" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -9305,16 +9317,16 @@
         <v>469</v>
       </c>
       <c r="F176" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G176" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H176" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="I176" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -9331,16 +9343,16 @@
         <v>469</v>
       </c>
       <c r="F177" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G177" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H177" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="I177" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -9357,16 +9369,16 @@
         <v>469</v>
       </c>
       <c r="F178" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G178" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H178" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="I178" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -9383,22 +9395,22 @@
         <v>469</v>
       </c>
       <c r="F179" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G179" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H179" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="I179" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="K179" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="L179" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -9415,16 +9427,16 @@
         <v>469</v>
       </c>
       <c r="F180" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G180" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H180" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="I180" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -9441,16 +9453,16 @@
         <v>469</v>
       </c>
       <c r="F181" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G181" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H181" t="s">
-        <v>1399</v>
+        <v>1422</v>
       </c>
       <c r="I181" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -9467,16 +9479,16 @@
         <v>469</v>
       </c>
       <c r="F182" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G182" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H182" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="I182" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -9493,16 +9505,16 @@
         <v>469</v>
       </c>
       <c r="F183" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G183" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H183" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="I183" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -9519,16 +9531,16 @@
         <v>469</v>
       </c>
       <c r="F184" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G184" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H184" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
       <c r="I184" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
@@ -9545,16 +9557,16 @@
         <v>469</v>
       </c>
       <c r="F185" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G185" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H185" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="I185" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -9571,16 +9583,16 @@
         <v>469</v>
       </c>
       <c r="F186" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G186" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H186" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I186" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -9597,16 +9609,16 @@
         <v>469</v>
       </c>
       <c r="F187" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G187" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H187" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I187" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -9623,16 +9635,16 @@
         <v>469</v>
       </c>
       <c r="F188" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G188" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H188" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I188" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -9649,16 +9661,16 @@
         <v>469</v>
       </c>
       <c r="F189" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G189" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H189" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="I189" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -9675,16 +9687,16 @@
         <v>469</v>
       </c>
       <c r="F190" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G190" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H190" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="I190" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -9701,16 +9713,16 @@
         <v>469</v>
       </c>
       <c r="F191" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G191" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H191" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="I191" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -9727,16 +9739,16 @@
         <v>469</v>
       </c>
       <c r="F192" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G192" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H192" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="I192" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9753,16 +9765,16 @@
         <v>469</v>
       </c>
       <c r="F193" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G193" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H193" t="s">
-        <v>1421</v>
+        <v>1411</v>
       </c>
       <c r="I193" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9779,16 +9791,16 @@
         <v>469</v>
       </c>
       <c r="F194" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G194" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H194" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="I194" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9805,16 +9817,16 @@
         <v>469</v>
       </c>
       <c r="F195" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G195" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H195" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="I195" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9831,16 +9843,16 @@
         <v>469</v>
       </c>
       <c r="F196" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G196" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H196" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I196" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9857,16 +9869,16 @@
         <v>469</v>
       </c>
       <c r="F197" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G197" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H197" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I197" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9883,16 +9895,16 @@
         <v>469</v>
       </c>
       <c r="F198" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G198" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H198" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="I198" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9909,16 +9921,16 @@
         <v>469</v>
       </c>
       <c r="F199" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G199" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H199" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I199" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9935,16 +9947,16 @@
         <v>469</v>
       </c>
       <c r="F200" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G200" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H200" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I200" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9961,16 +9973,16 @@
         <v>469</v>
       </c>
       <c r="F201" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G201" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H201" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I201" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9987,16 +9999,16 @@
         <v>469</v>
       </c>
       <c r="F202" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G202" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H202" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="I202" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -10013,16 +10025,16 @@
         <v>469</v>
       </c>
       <c r="F203" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G203" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H203" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I203" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -10039,16 +10051,16 @@
         <v>469</v>
       </c>
       <c r="F204" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G204" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H204" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I204" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -10065,16 +10077,16 @@
         <v>469</v>
       </c>
       <c r="F205" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G205" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H205" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I205" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -10091,16 +10103,16 @@
         <v>469</v>
       </c>
       <c r="F206" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G206" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H206" t="s">
-        <v>1381</v>
+        <v>1373</v>
       </c>
       <c r="I206" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -10117,16 +10129,16 @@
         <v>470</v>
       </c>
       <c r="F207" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G207" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H207" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I207" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -10143,16 +10155,16 @@
         <v>470</v>
       </c>
       <c r="F208" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G208" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H208" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I208" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
@@ -10169,16 +10181,16 @@
         <v>470</v>
       </c>
       <c r="F209" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G209" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H209" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I209" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
@@ -10195,16 +10207,16 @@
         <v>470</v>
       </c>
       <c r="F210" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G210" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H210" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I210" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -10221,16 +10233,16 @@
         <v>470</v>
       </c>
       <c r="F211" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G211" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H211" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I211" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -10247,16 +10259,16 @@
         <v>470</v>
       </c>
       <c r="F212" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G212" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H212" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I212" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -10273,16 +10285,16 @@
         <v>470</v>
       </c>
       <c r="F213" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G213" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H213" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I213" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -10299,16 +10311,16 @@
         <v>470</v>
       </c>
       <c r="F214" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G214" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H214" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="I214" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.3">
@@ -10325,16 +10337,16 @@
         <v>470</v>
       </c>
       <c r="F215" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G215" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H215" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I215" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -10351,16 +10363,16 @@
         <v>470</v>
       </c>
       <c r="F216" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G216" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H216" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I216" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.3">
@@ -10377,16 +10389,16 @@
         <v>470</v>
       </c>
       <c r="F217" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G217" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H217" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I217" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -10403,16 +10415,16 @@
         <v>470</v>
       </c>
       <c r="F218" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G218" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H218" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I218" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -10429,16 +10441,16 @@
         <v>470</v>
       </c>
       <c r="F219" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G219" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H219" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I219" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -10455,16 +10467,16 @@
         <v>470</v>
       </c>
       <c r="F220" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G220" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H220" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="I220" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -10481,19 +10493,19 @@
         <v>470</v>
       </c>
       <c r="F221" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G221" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H221" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I221" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J221" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -10510,19 +10522,19 @@
         <v>470</v>
       </c>
       <c r="F222" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G222" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H222" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I222" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J222" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -10539,19 +10551,19 @@
         <v>470</v>
       </c>
       <c r="F223" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G223" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H223" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="I223" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J223" t="s">
-        <v>1415</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -10568,16 +10580,16 @@
         <v>470</v>
       </c>
       <c r="F224" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G224" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H224" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I224" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10594,16 +10606,16 @@
         <v>470</v>
       </c>
       <c r="F225" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G225" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H225" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I225" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10620,16 +10632,16 @@
         <v>470</v>
       </c>
       <c r="F226" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G226" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H226" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I226" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10646,16 +10658,16 @@
         <v>470</v>
       </c>
       <c r="F227" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G227" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H227" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I227" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10672,16 +10684,16 @@
         <v>470</v>
       </c>
       <c r="F228" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G228" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H228" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="I228" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10698,16 +10710,16 @@
         <v>470</v>
       </c>
       <c r="F229" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G229" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H229" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="I229" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10724,16 +10736,16 @@
         <v>470</v>
       </c>
       <c r="F230" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G230" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H230" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="I230" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,19 +10762,19 @@
         <v>470</v>
       </c>
       <c r="F231" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G231" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H231" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I231" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J231" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10779,19 +10791,19 @@
         <v>470</v>
       </c>
       <c r="F232" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G232" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H232" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I232" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J232" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10808,19 +10820,19 @@
         <v>470</v>
       </c>
       <c r="F233" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G233" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H233" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I233" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J233" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10837,19 +10849,19 @@
         <v>470</v>
       </c>
       <c r="F234" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G234" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H234" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I234" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J234" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10866,19 +10878,19 @@
         <v>470</v>
       </c>
       <c r="F235" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G235" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H235" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I235" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J235" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10895,19 +10907,19 @@
         <v>470</v>
       </c>
       <c r="F236" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G236" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H236" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="I236" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J236" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10924,16 +10936,16 @@
         <v>470</v>
       </c>
       <c r="F237" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G237" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H237" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="I237" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10950,16 +10962,16 @@
         <v>470</v>
       </c>
       <c r="F238" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G238" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H238" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I238" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10976,16 +10988,16 @@
         <v>470</v>
       </c>
       <c r="F239" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G239" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H239" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="I239" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -11002,16 +11014,16 @@
         <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G240" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H240" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I240" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
@@ -11028,16 +11040,16 @@
         <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G241" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H241" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I241" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
@@ -11054,16 +11066,16 @@
         <v>471</v>
       </c>
       <c r="F242" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G242" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H242" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I242" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
@@ -11080,16 +11092,16 @@
         <v>471</v>
       </c>
       <c r="F243" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G243" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H243" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I243" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
@@ -11106,16 +11118,16 @@
         <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G244" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H244" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="I244" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
@@ -11132,16 +11144,16 @@
         <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G245" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H245" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I245" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
@@ -11158,16 +11170,16 @@
         <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G246" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H246" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I246" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
@@ -11184,16 +11196,16 @@
         <v>471</v>
       </c>
       <c r="F247" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G247" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H247" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I247" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
@@ -11210,16 +11222,16 @@
         <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G248" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H248" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="I248" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
@@ -11236,16 +11248,16 @@
         <v>471</v>
       </c>
       <c r="F249" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G249" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H249" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="I249" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
@@ -11262,16 +11274,16 @@
         <v>471</v>
       </c>
       <c r="F250" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G250" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H250" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="I250" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
@@ -11288,16 +11300,16 @@
         <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G251" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H251" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="I251" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
@@ -11314,16 +11326,16 @@
         <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G252" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H252" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="I252" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
@@ -11340,16 +11352,16 @@
         <v>471</v>
       </c>
       <c r="F253" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G253" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H253" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
       <c r="I253" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
@@ -11366,16 +11378,16 @@
         <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G254" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H254" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="I254" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
@@ -11392,16 +11404,16 @@
         <v>471</v>
       </c>
       <c r="F255" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G255" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H255" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I255" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
@@ -11418,16 +11430,16 @@
         <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G256" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H256" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="I256" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11444,16 +11456,16 @@
         <v>471</v>
       </c>
       <c r="F257" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G257" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H257" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="I257" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11470,16 +11482,16 @@
         <v>471</v>
       </c>
       <c r="F258" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G258" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H258" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I258" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11496,16 +11508,16 @@
         <v>471</v>
       </c>
       <c r="F259" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G259" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H259" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="I259" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11522,16 +11534,16 @@
         <v>471</v>
       </c>
       <c r="F260" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G260" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H260" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I260" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11548,16 +11560,16 @@
         <v>471</v>
       </c>
       <c r="F261" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G261" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H261" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="I261" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11574,16 +11586,16 @@
         <v>471</v>
       </c>
       <c r="F262" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G262" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H262" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="I262" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11600,16 +11612,16 @@
         <v>471</v>
       </c>
       <c r="F263" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G263" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H263" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="I263" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11626,16 +11638,16 @@
         <v>471</v>
       </c>
       <c r="F264" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G264" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H264" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I264" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11652,16 +11664,16 @@
         <v>471</v>
       </c>
       <c r="F265" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G265" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H265" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I265" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11678,16 +11690,16 @@
         <v>471</v>
       </c>
       <c r="F266" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G266" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H266" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I266" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11704,16 +11716,16 @@
         <v>471</v>
       </c>
       <c r="F267" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G267" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H267" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I267" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11730,16 +11742,16 @@
         <v>471</v>
       </c>
       <c r="F268" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G268" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H268" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="I268" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11756,16 +11768,16 @@
         <v>471</v>
       </c>
       <c r="F269" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G269" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H269" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="I269" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11782,16 +11794,16 @@
         <v>471</v>
       </c>
       <c r="F270" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G270" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H270" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I270" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11808,16 +11820,16 @@
         <v>471</v>
       </c>
       <c r="F271" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G271" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H271" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I271" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11834,16 +11846,16 @@
         <v>471</v>
       </c>
       <c r="F272" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G272" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H272" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I272" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11860,16 +11872,16 @@
         <v>471</v>
       </c>
       <c r="F273" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G273" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H273" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="I273" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11886,16 +11898,16 @@
         <v>471</v>
       </c>
       <c r="F274" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G274" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H274" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I274" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11912,16 +11924,16 @@
         <v>471</v>
       </c>
       <c r="F275" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G275" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H275" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I275" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11938,16 +11950,16 @@
         <v>471</v>
       </c>
       <c r="F276" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G276" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H276" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I276" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11964,16 +11976,16 @@
         <v>471</v>
       </c>
       <c r="F277" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G277" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H277" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I277" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11990,16 +12002,16 @@
         <v>471</v>
       </c>
       <c r="F278" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G278" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H278" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="I278" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -12016,16 +12028,16 @@
         <v>471</v>
       </c>
       <c r="F279" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G279" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H279" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I279" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -12042,16 +12054,16 @@
         <v>471</v>
       </c>
       <c r="F280" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G280" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H280" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I280" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -12068,16 +12080,16 @@
         <v>471</v>
       </c>
       <c r="F281" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G281" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H281" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I281" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -12094,16 +12106,16 @@
         <v>471</v>
       </c>
       <c r="F282" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G282" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H282" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I282" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -12120,16 +12132,16 @@
         <v>471</v>
       </c>
       <c r="F283" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G283" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H283" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I283" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -12146,16 +12158,16 @@
         <v>471</v>
       </c>
       <c r="F284" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G284" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H284" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="I284" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -12172,16 +12184,16 @@
         <v>471</v>
       </c>
       <c r="F285" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G285" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H285" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="I285" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -12198,16 +12210,16 @@
         <v>471</v>
       </c>
       <c r="F286" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G286" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H286" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I286" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -12224,16 +12236,16 @@
         <v>471</v>
       </c>
       <c r="F287" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G287" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H287" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I287" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -12250,16 +12262,16 @@
         <v>471</v>
       </c>
       <c r="F288" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G288" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H288" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I288" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
@@ -12276,16 +12288,16 @@
         <v>471</v>
       </c>
       <c r="F289" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G289" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H289" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I289" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
@@ -12302,16 +12314,16 @@
         <v>471</v>
       </c>
       <c r="F290" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G290" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H290" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I290" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
@@ -12328,16 +12340,16 @@
         <v>471</v>
       </c>
       <c r="F291" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G291" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H291" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I291" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
@@ -12354,16 +12366,16 @@
         <v>471</v>
       </c>
       <c r="F292" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G292" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H292" t="s">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="I292" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
@@ -12380,16 +12392,16 @@
         <v>471</v>
       </c>
       <c r="F293" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G293" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H293" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="I293" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
@@ -12406,16 +12418,16 @@
         <v>471</v>
       </c>
       <c r="F294" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G294" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H294" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="I294" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
@@ -12432,16 +12444,16 @@
         <v>471</v>
       </c>
       <c r="F295" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G295" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H295" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="I295" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
@@ -12458,19 +12470,19 @@
         <v>471</v>
       </c>
       <c r="F296" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G296" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H296" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I296" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J296" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
@@ -12487,19 +12499,19 @@
         <v>471</v>
       </c>
       <c r="F297" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G297" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H297" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I297" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J297" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
@@ -12516,19 +12528,19 @@
         <v>471</v>
       </c>
       <c r="F298" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G298" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H298" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I298" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J298" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
@@ -12545,19 +12557,19 @@
         <v>471</v>
       </c>
       <c r="F299" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G299" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H299" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I299" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J299" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
@@ -12574,16 +12586,16 @@
         <v>471</v>
       </c>
       <c r="F300" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G300" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H300" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I300" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
@@ -12600,16 +12612,16 @@
         <v>471</v>
       </c>
       <c r="F301" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G301" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H301" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="I301" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
@@ -12626,16 +12638,16 @@
         <v>471</v>
       </c>
       <c r="F302" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G302" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H302" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="I302" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
@@ -12652,16 +12664,16 @@
         <v>471</v>
       </c>
       <c r="F303" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G303" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H303" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="I303" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
@@ -12678,16 +12690,16 @@
         <v>471</v>
       </c>
       <c r="F304" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G304" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H304" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="I304" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
@@ -12704,16 +12716,16 @@
         <v>471</v>
       </c>
       <c r="F305" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G305" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H305" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I305" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
@@ -12730,16 +12742,16 @@
         <v>471</v>
       </c>
       <c r="F306" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G306" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H306" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I306" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
@@ -12756,16 +12768,16 @@
         <v>471</v>
       </c>
       <c r="F307" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G307" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H307" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="I307" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
@@ -12782,16 +12794,16 @@
         <v>471</v>
       </c>
       <c r="F308" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G308" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H308" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="I308" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
@@ -12808,19 +12820,19 @@
         <v>471</v>
       </c>
       <c r="F309" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G309" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H309" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="I309" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="J309" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
@@ -12837,16 +12849,16 @@
         <v>471</v>
       </c>
       <c r="F310" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G310" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H310" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I310" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
@@ -12863,16 +12875,16 @@
         <v>471</v>
       </c>
       <c r="F311" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G311" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H311" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I311" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
@@ -12892,16 +12904,16 @@
         <v>471</v>
       </c>
       <c r="F312" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G312" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H312" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I312" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
@@ -12921,16 +12933,16 @@
         <v>471</v>
       </c>
       <c r="F313" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G313" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H313" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I313" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
@@ -12947,16 +12959,16 @@
         <v>471</v>
       </c>
       <c r="F314" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G314" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H314" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I314" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
@@ -12973,16 +12985,16 @@
         <v>471</v>
       </c>
       <c r="F315" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G315" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H315" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="I315" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
@@ -12999,16 +13011,16 @@
         <v>471</v>
       </c>
       <c r="F316" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G316" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H316" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I316" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
@@ -13025,16 +13037,16 @@
         <v>471</v>
       </c>
       <c r="F317" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G317" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H317" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I317" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
@@ -13051,16 +13063,16 @@
         <v>471</v>
       </c>
       <c r="F318" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G318" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H318" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="I318" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
@@ -13077,16 +13089,16 @@
         <v>471</v>
       </c>
       <c r="F319" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G319" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H319" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I319" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
@@ -13103,16 +13115,16 @@
         <v>471</v>
       </c>
       <c r="F320" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G320" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H320" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I320" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -13129,16 +13141,16 @@
         <v>471</v>
       </c>
       <c r="F321" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G321" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H321" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I321" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -13155,16 +13167,16 @@
         <v>471</v>
       </c>
       <c r="F322" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G322" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H322" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="I322" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -13181,16 +13193,16 @@
         <v>471</v>
       </c>
       <c r="F323" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G323" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H323" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I323" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -13207,16 +13219,16 @@
         <v>471</v>
       </c>
       <c r="F324" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G324" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H324" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I324" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -13233,16 +13245,16 @@
         <v>471</v>
       </c>
       <c r="F325" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G325" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H325" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="I325" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -13259,16 +13271,16 @@
         <v>471</v>
       </c>
       <c r="F326" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G326" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H326" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I326" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13285,16 +13297,16 @@
         <v>471</v>
       </c>
       <c r="F327" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G327" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H327" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I327" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13311,16 +13323,16 @@
         <v>471</v>
       </c>
       <c r="F328" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G328" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H328" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="I328" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13337,16 +13349,16 @@
         <v>471</v>
       </c>
       <c r="F329" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G329" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H329" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="I329" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13363,16 +13375,16 @@
         <v>471</v>
       </c>
       <c r="F330" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G330" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H330" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="I330" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13389,16 +13401,16 @@
         <v>471</v>
       </c>
       <c r="F331" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G331" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H331" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I331" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13415,16 +13427,16 @@
         <v>471</v>
       </c>
       <c r="F332" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G332" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H332" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="I332" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13441,16 +13453,16 @@
         <v>471</v>
       </c>
       <c r="F333" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G333" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H333" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="I333" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13467,16 +13479,16 @@
         <v>471</v>
       </c>
       <c r="F334" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G334" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H334" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="I334" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13493,16 +13505,16 @@
         <v>471</v>
       </c>
       <c r="F335" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G335" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H335" t="s">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="I335" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13519,16 +13531,16 @@
         <v>471</v>
       </c>
       <c r="F336" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G336" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H336" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I336" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13545,16 +13557,16 @@
         <v>471</v>
       </c>
       <c r="F337" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G337" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H337" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="I337" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13571,16 +13583,16 @@
         <v>471</v>
       </c>
       <c r="F338" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G338" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H338" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="I338" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13597,16 +13609,16 @@
         <v>471</v>
       </c>
       <c r="F339" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G339" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H339" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="I339" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13623,16 +13635,16 @@
         <v>471</v>
       </c>
       <c r="F340" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G340" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H340" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="I340" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13649,16 +13661,16 @@
         <v>471</v>
       </c>
       <c r="F341" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G341" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H341" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I341" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13675,16 +13687,16 @@
         <v>471</v>
       </c>
       <c r="F342" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G342" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H342" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I342" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13701,16 +13713,16 @@
         <v>471</v>
       </c>
       <c r="F343" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G343" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H343" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="I343" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13727,16 +13739,16 @@
         <v>471</v>
       </c>
       <c r="F344" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G344" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H344" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="I344" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13753,16 +13765,16 @@
         <v>471</v>
       </c>
       <c r="F345" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G345" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H345" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="I345" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13779,16 +13791,16 @@
         <v>471</v>
       </c>
       <c r="F346" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G346" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H346" t="s">
-        <v>1388</v>
+        <v>1380</v>
       </c>
       <c r="I346" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13805,16 +13817,16 @@
         <v>471</v>
       </c>
       <c r="F347" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G347" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H347" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="I347" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13831,16 +13843,16 @@
         <v>471</v>
       </c>
       <c r="F348" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G348" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H348" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="I348" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13857,16 +13869,16 @@
         <v>471</v>
       </c>
       <c r="F349" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G349" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H349" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I349" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13883,16 +13895,16 @@
         <v>471</v>
       </c>
       <c r="F350" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G350" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H350" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I350" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13909,16 +13921,16 @@
         <v>471</v>
       </c>
       <c r="F351" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G351" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H351" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="I351" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13935,16 +13947,16 @@
         <v>471</v>
       </c>
       <c r="F352" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G352" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H352" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="I352" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13961,16 +13973,16 @@
         <v>471</v>
       </c>
       <c r="F353" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G353" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H353" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="I353" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13987,16 +13999,16 @@
         <v>471</v>
       </c>
       <c r="F354" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G354" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H354" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I354" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -14013,16 +14025,16 @@
         <v>471</v>
       </c>
       <c r="F355" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G355" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H355" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="I355" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -14039,16 +14051,16 @@
         <v>471</v>
       </c>
       <c r="F356" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G356" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H356" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="I356" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -14065,16 +14077,16 @@
         <v>471</v>
       </c>
       <c r="F357" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G357" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H357" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="I357" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -14091,16 +14103,16 @@
         <v>471</v>
       </c>
       <c r="F358" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G358" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H358" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I358" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -14117,16 +14129,16 @@
         <v>471</v>
       </c>
       <c r="F359" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G359" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H359" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="I359" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -14143,16 +14155,16 @@
         <v>471</v>
       </c>
       <c r="F360" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G360" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H360" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="I360" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -14169,16 +14181,16 @@
         <v>471</v>
       </c>
       <c r="F361" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G361" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H361" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="I361" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -14195,16 +14207,16 @@
         <v>471</v>
       </c>
       <c r="F362" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G362" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H362" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="I362" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -14221,16 +14233,16 @@
         <v>471</v>
       </c>
       <c r="F363" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G363" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H363" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="I363" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -14247,16 +14259,16 @@
         <v>471</v>
       </c>
       <c r="F364" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G364" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H364" t="s">
-        <v>1416</v>
+        <v>1406</v>
       </c>
       <c r="I364" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14273,16 +14285,16 @@
         <v>471</v>
       </c>
       <c r="F365" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G365" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H365" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="I365" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14299,16 +14311,16 @@
         <v>472</v>
       </c>
       <c r="F366" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G366" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H366" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="I366" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14325,16 +14337,16 @@
         <v>472</v>
       </c>
       <c r="F367" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G367" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H367" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="I367" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14351,16 +14363,16 @@
         <v>472</v>
       </c>
       <c r="F368" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G368" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H368" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="I368" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -14377,16 +14389,16 @@
         <v>472</v>
       </c>
       <c r="F369" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G369" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H369" t="s">
-        <v>1389</v>
+        <v>1381</v>
       </c>
       <c r="I369" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -14403,16 +14415,16 @@
         <v>472</v>
       </c>
       <c r="F370" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G370" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H370" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="I370" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -14429,16 +14441,16 @@
         <v>472</v>
       </c>
       <c r="F371" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G371" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H371" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="I371" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14455,16 +14467,16 @@
         <v>472</v>
       </c>
       <c r="F372" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G372" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H372" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I372" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14481,16 +14493,16 @@
         <v>472</v>
       </c>
       <c r="F373" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G373" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H373" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="I373" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14510,16 +14522,16 @@
         <v>472</v>
       </c>
       <c r="F374" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G374" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H374" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I374" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14539,16 +14551,16 @@
         <v>472</v>
       </c>
       <c r="F375" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G375" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H375" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I375" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14568,16 +14580,16 @@
         <v>472</v>
       </c>
       <c r="F376" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G376" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H376" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I376" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14597,16 +14609,16 @@
         <v>472</v>
       </c>
       <c r="F377" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G377" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H377" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I377" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14626,16 +14638,16 @@
         <v>472</v>
       </c>
       <c r="F378" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G378" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H378" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I378" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14652,16 +14664,16 @@
         <v>472</v>
       </c>
       <c r="F379" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G379" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H379" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I379" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14678,16 +14690,16 @@
         <v>472</v>
       </c>
       <c r="F380" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G380" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H380" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I380" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14704,16 +14716,16 @@
         <v>472</v>
       </c>
       <c r="F381" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G381" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H381" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I381" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14730,16 +14742,16 @@
         <v>472</v>
       </c>
       <c r="F382" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G382" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H382" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I382" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14756,16 +14768,16 @@
         <v>472</v>
       </c>
       <c r="F383" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G383" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H383" t="s">
-        <v>1417</v>
+        <v>1407</v>
       </c>
       <c r="I383" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14782,16 +14794,16 @@
         <v>472</v>
       </c>
       <c r="F384" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G384" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H384" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I384" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
@@ -14808,16 +14820,16 @@
         <v>472</v>
       </c>
       <c r="F385" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G385" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H385" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="I385" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
@@ -14834,16 +14846,16 @@
         <v>472</v>
       </c>
       <c r="F386" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G386" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H386" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I386" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
@@ -14860,16 +14872,16 @@
         <v>472</v>
       </c>
       <c r="F387" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G387" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H387" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="I387" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
@@ -14886,16 +14898,16 @@
         <v>472</v>
       </c>
       <c r="F388" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G388" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H388" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I388" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
@@ -14912,16 +14924,16 @@
         <v>472</v>
       </c>
       <c r="F389" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G389" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H389" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="I389" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
@@ -14941,16 +14953,16 @@
         <v>472</v>
       </c>
       <c r="F390" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G390" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H390" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I390" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.3">
@@ -14967,16 +14979,16 @@
         <v>472</v>
       </c>
       <c r="F391" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G391" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H391" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I391" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
@@ -14993,16 +15005,16 @@
         <v>472</v>
       </c>
       <c r="F392" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G392" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H392" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I392" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
@@ -15019,16 +15031,16 @@
         <v>472</v>
       </c>
       <c r="F393" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G393" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H393" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="I393" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
@@ -15045,16 +15057,16 @@
         <v>472</v>
       </c>
       <c r="F394" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G394" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H394" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I394" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
@@ -15071,16 +15083,16 @@
         <v>472</v>
       </c>
       <c r="F395" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G395" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H395" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I395" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
@@ -15097,16 +15109,16 @@
         <v>472</v>
       </c>
       <c r="F396" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G396" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H396" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I396" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
@@ -15123,16 +15135,16 @@
         <v>472</v>
       </c>
       <c r="F397" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G397" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H397" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I397" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
@@ -15149,16 +15161,16 @@
         <v>472</v>
       </c>
       <c r="F398" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G398" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H398" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I398" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
@@ -15175,16 +15187,16 @@
         <v>472</v>
       </c>
       <c r="F399" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G399" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H399" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I399" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
@@ -15201,16 +15213,16 @@
         <v>472</v>
       </c>
       <c r="F400" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G400" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H400" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I400" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -15227,16 +15239,16 @@
         <v>472</v>
       </c>
       <c r="F401" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G401" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H401" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="I401" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -15253,16 +15265,16 @@
         <v>472</v>
       </c>
       <c r="F402" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G402" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H402" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I402" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -15279,16 +15291,16 @@
         <v>472</v>
       </c>
       <c r="F403" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G403" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H403" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="I403" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -15305,16 +15317,16 @@
         <v>472</v>
       </c>
       <c r="F404" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G404" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H404" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I404" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -15331,16 +15343,16 @@
         <v>472</v>
       </c>
       <c r="F405" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="G405" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H405" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I405" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -15357,16 +15369,16 @@
         <v>472</v>
       </c>
       <c r="F406" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G406" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H406" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="I406" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -15386,16 +15398,16 @@
         <v>472</v>
       </c>
       <c r="F407" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="G407" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H407" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I407" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
@@ -15415,16 +15427,16 @@
         <v>472</v>
       </c>
       <c r="F408" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G408" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H408" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I408" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
@@ -15444,16 +15456,16 @@
         <v>472</v>
       </c>
       <c r="F409" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G409" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H409" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I409" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
@@ -15473,16 +15485,16 @@
         <v>472</v>
       </c>
       <c r="F410" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G410" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H410" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I410" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
@@ -15502,16 +15514,16 @@
         <v>472</v>
       </c>
       <c r="F411" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="G411" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H411" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I411" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
@@ -15531,16 +15543,16 @@
         <v>472</v>
       </c>
       <c r="F412" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="G412" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H412" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="I412" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
@@ -15560,16 +15572,16 @@
         <v>472</v>
       </c>
       <c r="F413" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G413" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H413" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I413" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
@@ -15589,16 +15601,16 @@
         <v>472</v>
       </c>
       <c r="F414" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G414" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H414" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I414" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
@@ -15618,16 +15630,16 @@
         <v>472</v>
       </c>
       <c r="F415" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G415" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H415" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I415" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
@@ -15647,16 +15659,16 @@
         <v>472</v>
       </c>
       <c r="F416" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G416" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H416" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I416" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15676,16 +15688,16 @@
         <v>472</v>
       </c>
       <c r="F417" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G417" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H417" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I417" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15705,16 +15717,16 @@
         <v>472</v>
       </c>
       <c r="F418" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="G418" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H418" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="I418" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15731,16 +15743,16 @@
         <v>472</v>
       </c>
       <c r="F419" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G419" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H419" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I419" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15757,16 +15769,16 @@
         <v>472</v>
       </c>
       <c r="F420" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G420" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H420" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="I420" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15783,16 +15795,16 @@
         <v>472</v>
       </c>
       <c r="F421" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G421" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H421" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I421" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15809,16 +15821,16 @@
         <v>472</v>
       </c>
       <c r="F422" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G422" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H422" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I422" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15838,13 +15850,13 @@
         <v>534</v>
       </c>
       <c r="G423" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="H423" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I423" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15864,13 +15876,13 @@
         <v>553</v>
       </c>
       <c r="G424" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H424" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I424" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15887,16 +15899,16 @@
         <v>472</v>
       </c>
       <c r="F425" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G425" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H425" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="I425" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15913,16 +15925,16 @@
         <v>472</v>
       </c>
       <c r="F426" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G426" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H426" t="s">
-        <v>1390</v>
+        <v>1382</v>
       </c>
       <c r="I426" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15939,16 +15951,16 @@
         <v>472</v>
       </c>
       <c r="F427" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G427" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H427" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="I427" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -15965,16 +15977,16 @@
         <v>472</v>
       </c>
       <c r="F428" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G428" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="H428" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I428" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -15991,16 +16003,16 @@
         <v>472</v>
       </c>
       <c r="F429" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G429" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="H429" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I429" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -16017,16 +16029,16 @@
         <v>472</v>
       </c>
       <c r="F430" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G430" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H430" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I430" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -16043,16 +16055,16 @@
         <v>472</v>
       </c>
       <c r="F431" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G431" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H431" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I431" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -16069,16 +16081,16 @@
         <v>472</v>
       </c>
       <c r="F432" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G432" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H432" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I432" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.3">
@@ -16095,16 +16107,16 @@
         <v>472</v>
       </c>
       <c r="F433" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G433" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H433" t="s">
-        <v>1391</v>
+        <v>1383</v>
       </c>
       <c r="I433" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.3">
@@ -16121,16 +16133,16 @@
         <v>472</v>
       </c>
       <c r="F434" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G434" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H434" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I434" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.3">
@@ -16147,16 +16159,16 @@
         <v>472</v>
       </c>
       <c r="F435" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="G435" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H435" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I435" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.3">
@@ -16173,22 +16185,22 @@
         <v>472</v>
       </c>
       <c r="F436" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G436" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="H436" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I436" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L436" t="s">
         <v>1353</v>
       </c>
-      <c r="I436" t="s">
-        <v>1407</v>
-      </c>
-      <c r="L436" t="s">
-        <v>1356</v>
-      </c>
       <c r="M436" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.3">
@@ -16205,16 +16217,16 @@
         <v>472</v>
       </c>
       <c r="F437" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G437" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="H437" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="I437" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.3">
@@ -16231,22 +16243,22 @@
         <v>472</v>
       </c>
       <c r="F438" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G438" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H438" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I438" t="s">
+        <v>1398</v>
+      </c>
+      <c r="L438" t="s">
         <v>1353</v>
       </c>
-      <c r="I438" t="s">
-        <v>1407</v>
-      </c>
-      <c r="L438" t="s">
-        <v>1356</v>
-      </c>
       <c r="M438" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.3">
@@ -16263,16 +16275,16 @@
         <v>472</v>
       </c>
       <c r="F439" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G439" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="H439" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="I439" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.3">
@@ -16289,22 +16301,22 @@
         <v>472</v>
       </c>
       <c r="F440" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="G440" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H440" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="I440" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="L440" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="M440" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.3">
@@ -16321,16 +16333,16 @@
         <v>472</v>
       </c>
       <c r="F441" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G441" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H441" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="I441" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.3">
@@ -16347,16 +16359,16 @@
         <v>472</v>
       </c>
       <c r="F442" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G442" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H442" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="I442" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.3">
@@ -16376,19 +16388,19 @@
         <v>472</v>
       </c>
       <c r="F443" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="G443" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H443" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I443" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J443" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.3">
@@ -16405,25 +16417,25 @@
         <v>472</v>
       </c>
       <c r="F444" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G444" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="H444" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I444" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J444" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="L444" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="M444" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.3">
@@ -16440,25 +16452,25 @@
         <v>472</v>
       </c>
       <c r="F445" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G445" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H445" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I445" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J445" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="L445" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="M445" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.3">
@@ -16475,19 +16487,19 @@
         <v>472</v>
       </c>
       <c r="F446" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G446" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H446" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="I446" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
       <c r="J446" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.3">
@@ -16504,16 +16516,16 @@
         <v>472</v>
       </c>
       <c r="F447" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G447" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H447" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="I447" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.3">
@@ -16530,16 +16542,16 @@
         <v>472</v>
       </c>
       <c r="F448" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="G448" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H448" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="I448" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
@@ -16556,16 +16568,16 @@
         <v>472</v>
       </c>
       <c r="F449" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G449" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H449" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="I449" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
@@ -16582,16 +16594,16 @@
         <v>472</v>
       </c>
       <c r="F450" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="G450" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H450" t="s">
-        <v>1358</v>
+        <v>1421</v>
       </c>
       <c r="I450" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
@@ -16608,16 +16620,16 @@
         <v>472</v>
       </c>
       <c r="F451" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="G451" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H451" t="s">
-        <v>1358</v>
+        <v>1421</v>
       </c>
       <c r="I451" t="s">
-        <v>1410</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
@@ -16634,16 +16646,16 @@
         <v>472</v>
       </c>
       <c r="F452" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G452" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H452" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I452" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
@@ -16660,16 +16672,16 @@
         <v>472</v>
       </c>
       <c r="F453" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G453" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H453" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="I453" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
@@ -16686,16 +16698,16 @@
         <v>472</v>
       </c>
       <c r="F454" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G454" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H454" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="I454" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.3">
@@ -16712,16 +16724,16 @@
         <v>472</v>
       </c>
       <c r="F455" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G455" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H455" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="I455" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
@@ -16738,16 +16750,16 @@
         <v>472</v>
       </c>
       <c r="F456" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="G456" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H456" t="s">
-        <v>1393</v>
+        <v>1385</v>
       </c>
       <c r="I456" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
@@ -16764,16 +16776,16 @@
         <v>472</v>
       </c>
       <c r="F457" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="G457" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H457" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I457" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
@@ -16790,16 +16802,16 @@
         <v>472</v>
       </c>
       <c r="F458" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="G458" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H458" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I458" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
@@ -16816,16 +16828,16 @@
         <v>472</v>
       </c>
       <c r="F459" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G459" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H459" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I459" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
@@ -16842,16 +16854,16 @@
         <v>472</v>
       </c>
       <c r="F460" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="G460" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="H460" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I460" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
@@ -16868,16 +16880,16 @@
         <v>472</v>
       </c>
       <c r="F461" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G461" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H461" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="I461" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
@@ -16894,16 +16906,16 @@
         <v>472</v>
       </c>
       <c r="F462" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="G462" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H462" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="I462" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
@@ -16920,16 +16932,16 @@
         <v>472</v>
       </c>
       <c r="F463" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G463" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H463" t="s">
-        <v>1363</v>
+        <v>1418</v>
       </c>
       <c r="I463" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
@@ -16946,16 +16958,16 @@
         <v>472</v>
       </c>
       <c r="F464" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="G464" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H464" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="I464" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
